--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB82EDF-4043-4D55-83A5-A2086575DF85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FA5F56-10C7-4C88-911C-B6B677C71D27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="122">
   <si>
     <t>Field name</t>
   </si>
@@ -364,6 +364,30 @@
   </si>
   <si>
     <t>This describes the type of crosswalk at the beginning of the segment from the following categories:[continental,transverse,ladder,textured,other]</t>
+  </si>
+  <si>
+    <t>Level in JSON Hierarchy</t>
+  </si>
+  <si>
+    <t>geometry</t>
+  </si>
+  <si>
+    <t>JSON LineString</t>
+  </si>
+  <si>
+    <t>SharedStreetID</t>
+  </si>
+  <si>
+    <t>SSID</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>sharedstreetid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SharedStreets ID for the specific segment of interest. This should be a unique ID. </t>
   </si>
 </sst>
 </file>
@@ -705,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -716,7 +740,7 @@
     <col min="1" max="2" width="32.83984375" customWidth="1"/>
     <col min="3" max="3" width="20.9453125" customWidth="1"/>
     <col min="4" max="4" width="18.3125" customWidth="1"/>
-    <col min="5" max="5" width="73.15625" customWidth="1"/>
+    <col min="5" max="5" width="77.20703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -760,44 +784,44 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -806,15 +830,15 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
@@ -823,15 +847,15 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -840,15 +864,15 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
@@ -857,236 +881,236 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>6</v>
@@ -1095,15 +1119,15 @@
         <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
@@ -1112,15 +1136,15 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
@@ -1129,15 +1153,15 @@
         <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
@@ -1146,219 +1170,219 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
         <v>57</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
         <v>48</v>
@@ -1367,6 +1391,23 @@
         <v>15</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1393,15 +1434,75 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE16D9-6B4A-4B97-84C9-4C29085A06C3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="11.7890625" customWidth="1"/>
+    <col min="2" max="2" width="33.89453125" customWidth="1"/>
+    <col min="3" max="3" width="20.89453125" customWidth="1"/>
+    <col min="4" max="4" width="26.83984375" customWidth="1"/>
+    <col min="5" max="5" width="52.05078125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FA5F56-10C7-4C88-911C-B6B677C71D27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AED4DC2-7869-4D48-9EDD-061A878BC742}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="137">
   <si>
     <t>Field name</t>
   </si>
@@ -388,6 +388,51 @@
   </si>
   <si>
     <t xml:space="preserve">SharedStreets ID for the specific segment of interest. This should be a unique ID. </t>
+  </si>
+  <si>
+    <t>slices</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>Nested Fields</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denotes from left to right, slices of a right of way, whose subattributes denote  its characteristics.The main sub-attribute are the type of slices (drive_lane, bike_lane,walkway, etc), its width in meters, its height in meters, its direction (forward or reverse), and a meta-data tag with other information about the slice (color, improvement year, or other information). </t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This denotes any other metadata to be associated with the slice. This will likely be a work in progress. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denotes the type of slice being referenced. Meta data tags may be associated with each type to give supplementary information about the type. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denotes the width in meters of the slice. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denotes the height in meters of the slice relative to the rest of the road. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denotes whether the slice is facing forward (towards the geometry end point) or reverse (towards the geometry start point). </t>
   </si>
 </sst>
 </file>
@@ -731,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1434,75 +1479,188 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE16D9-6B4A-4B97-84C9-4C29085A06C3}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.7890625" customWidth="1"/>
-    <col min="2" max="2" width="33.89453125" customWidth="1"/>
-    <col min="3" max="3" width="20.89453125" customWidth="1"/>
-    <col min="4" max="4" width="26.83984375" customWidth="1"/>
-    <col min="5" max="5" width="52.05078125" customWidth="1"/>
+    <col min="1" max="1" width="14.734375" customWidth="1"/>
+    <col min="2" max="2" width="11.7890625" customWidth="1"/>
+    <col min="3" max="3" width="33.89453125" customWidth="1"/>
+    <col min="4" max="4" width="20.89453125" customWidth="1"/>
+    <col min="5" max="5" width="26.83984375" customWidth="1"/>
+    <col min="6" max="6" width="52.05078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
       <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AED4DC2-7869-4D48-9EDD-061A878BC742}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB435DD3-0242-49F2-835F-03D96BD6099F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="138">
   <si>
     <t>Field name</t>
   </si>
@@ -423,9 +423,6 @@
     <t xml:space="preserve">This denotes any other metadata to be associated with the slice. This will likely be a work in progress. </t>
   </si>
   <si>
-    <t xml:space="preserve">Denotes the type of slice being referenced. Meta data tags may be associated with each type to give supplementary information about the type. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Denotes the width in meters of the slice. </t>
   </si>
   <si>
@@ -433,6 +430,12 @@
   </si>
   <si>
     <t xml:space="preserve">Denotes whether the slice is facing forward (towards the geometry end point) or reverse (towards the geometry start point). </t>
+  </si>
+  <si>
+    <t>Denotes the type of slice being referenced. Meta data tags may be associated with each type to give supplementary information about the type. Type information should correspond to the additive specification, but also provide flexibility for new or emerging lane types.</t>
+  </si>
+  <si>
+    <t>Possible Values</t>
   </si>
 </sst>
 </file>
@@ -776,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1479,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE16D9-6B4A-4B97-84C9-4C29085A06C3}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1493,14 +1496,15 @@
     <col min="4" max="4" width="20.89453125" customWidth="1"/>
     <col min="5" max="5" width="26.83984375" customWidth="1"/>
     <col min="6" max="6" width="52.05078125" customWidth="1"/>
+    <col min="7" max="7" width="46.9453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1519,8 +1523,11 @@
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>115</v>
       </c>
@@ -1538,7 +1545,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>120</v>
       </c>
@@ -1556,7 +1563,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>122</v>
       </c>
@@ -1574,7 +1581,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>125</v>
@@ -1589,10 +1596,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>126</v>
@@ -1607,10 +1614,10 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>127</v>
@@ -1625,10 +1632,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>128</v>
@@ -1643,10 +1650,10 @@
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2" t="s">
         <v>131</v>
       </c>

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB435DD3-0242-49F2-835F-03D96BD6099F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B721FB9B-3A1D-44D1-9FCF-EF40E2A9A2E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
     <sheet name="Crosswalk (In Progress)" sheetId="3" r:id="rId2"/>
     <sheet name="Slice Cross-section Spec" sheetId="2" r:id="rId3"/>
+    <sheet name="Slice Types" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="145">
   <si>
     <t>Field name</t>
   </si>
@@ -420,9 +421,6 @@
     <t>meta</t>
   </si>
   <si>
-    <t xml:space="preserve">This denotes any other metadata to be associated with the slice. This will likely be a work in progress. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Denotes the width in meters of the slice. </t>
   </si>
   <si>
@@ -432,17 +430,77 @@
     <t xml:space="preserve">Denotes whether the slice is facing forward (towards the geometry end point) or reverse (towards the geometry start point). </t>
   </si>
   <si>
-    <t>Denotes the type of slice being referenced. Meta data tags may be associated with each type to give supplementary information about the type. Type information should correspond to the additive specification, but also provide flexibility for new or emerging lane types.</t>
-  </si>
-  <si>
-    <t>Possible Values</t>
+    <r>
+      <t xml:space="preserve">Denotes the type of slice being referenced. Meta data tags may be associated with each type to give supplementary information about the type. Type information should correspond to the additive specification, but also provide flexibility for new or emerging lane types. Possible slice types are documented in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Slice Types Table.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This denotes any other metadata to be associated with the slice. This will likely be a work in progress. Relevant meta tags are documented in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Slice Types Table. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">This sheet documents the different types of slices possible within the slice based specification and their associated meta tags. </t>
+  </si>
+  <si>
+    <t>Slice Type</t>
+  </si>
+  <si>
+    <t>Meta Tags</t>
+  </si>
+  <si>
+    <t>drive_lane</t>
+  </si>
+  <si>
+    <t>sharrow</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describes whether a drive_lane slice has a sharrow stamp located within it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This denotes a through-lane intended for automobile traffic. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,6 +516,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1482,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE16D9-6B4A-4B97-84C9-4C29085A06C3}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1496,15 +1562,14 @@
     <col min="4" max="4" width="20.89453125" customWidth="1"/>
     <col min="5" max="5" width="26.83984375" customWidth="1"/>
     <col min="6" max="6" width="52.05078125" customWidth="1"/>
-    <col min="7" max="7" width="46.9453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="22.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1523,11 +1588,8 @@
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>115</v>
       </c>
@@ -1545,7 +1607,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>120</v>
       </c>
@@ -1563,7 +1625,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>122</v>
       </c>
@@ -1581,7 +1643,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>125</v>
@@ -1596,10 +1658,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>126</v>
@@ -1614,10 +1676,10 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>127</v>
@@ -1632,10 +1694,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>128</v>
@@ -1650,10 +1712,10 @@
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2" t="s">
         <v>131</v>
       </c>
@@ -1667,7 +1729,79 @@
         <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14113956-9C41-4528-BBB9-AD2809B184AF}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="20.3671875" customWidth="1"/>
+    <col min="3" max="3" width="30.1015625" customWidth="1"/>
+    <col min="4" max="4" width="28.15625" customWidth="1"/>
+    <col min="5" max="5" width="76.05078125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B721FB9B-3A1D-44D1-9FCF-EF40E2A9A2E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC2D4BA-296E-45D6-86E1-0599901B3E00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1010" windowWidth="30050" windowHeight="17810" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="224">
   <si>
     <t>Field name</t>
   </si>
@@ -495,12 +495,249 @@
   <si>
     <t xml:space="preserve">This denotes a through-lane intended for automobile traffic. </t>
   </si>
+  <si>
+    <t>(all)</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>paving</t>
+  </si>
+  <si>
+    <t>Meta tags permitted on all slices</t>
+  </si>
+  <si>
+    <t>A string value indicating painted color for the slice (e.g. "red" is common for bus lanes, "green" or "blue" for bike lanes). Allow some other descriptive words for special patterns or artwork</t>
+  </si>
+  <si>
+    <t>curb_height</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>A string value indicating the paving material of the surface, e.g. "asphalt", "concrete", "cobblestone", "dirt", etc. (There should be some attempt at standardizing common values but allow custom values to be used.) This should not be a required value because specific slices can assume default values, e.g. the default value of paving for a drive_lane, if not specified, is "asphalt". Allow "none" if slice is not paved; e.g. plants, water</t>
+  </si>
+  <si>
+    <t>A relative number for the height of the surface. Rather than deal with specific measurements (which can vary depending on elevation and other factors) we (that is, Streetmix) uses 0 to indicate a road surface and 1 for a raised sidewalk surface. If there is no height difference between the drive_lane and sidewalk areas, the values will both be 0. A surface at half-curb-height is 0.5. Ditches are given negative values. Raised platforms can be given any number above 1 that represents a relative scale factor compared to the difference in height between the sidewalk curb and road surface (e.g. 2, 2.5, 3, etc)</t>
+  </si>
+  <si>
+    <t>bike_lane</t>
+  </si>
+  <si>
+    <t>sidewalk</t>
+  </si>
+  <si>
+    <t>transitions</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Not entirely sure how this should be defined, but this property describes how the edge of one slice should transition to a neighboring slice based on some criteria. E.g. a drive_lane next to another_drive lane might have a transition of a broken white line. A raised curb next to an asphant-paved slice might have a gutter, or a ramp, or other types of transitions.</t>
+  </si>
+  <si>
+    <t>turn_lane</t>
+  </si>
+  <si>
+    <t>limitless</t>
+  </si>
+  <si>
+    <t>bus_lane</t>
+  </si>
+  <si>
+    <t>brt</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>transit</t>
+  </si>
+  <si>
+    <t>Whether the bus lane allows bikes (may have a sharrow stamp)</t>
+  </si>
+  <si>
+    <t>bikes_allowed</t>
+  </si>
+  <si>
+    <t>taxi_allowed</t>
+  </si>
+  <si>
+    <t>Whether the bus lane allows taxis (or other shared mobility)</t>
+  </si>
+  <si>
+    <t>parklet</t>
+  </si>
+  <si>
+    <t>VERY ROUGH DRAFT!</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>buffer</t>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>A lane where automobiles are taken out of traffic flow in order to queue for turning</t>
+  </si>
+  <si>
+    <t>A turn_lane may have a sharrow stamp</t>
+  </si>
+  <si>
+    <t>NON-AUTOMOTIVE (DEDICATED)</t>
+  </si>
+  <si>
+    <t>AUTOMOTIVE (DEDICATED)</t>
+  </si>
+  <si>
+    <t>CURB ZONE</t>
+  </si>
+  <si>
+    <t>MIXED LANES</t>
+  </si>
+  <si>
+    <t>MISCELLANEOUS</t>
+  </si>
+  <si>
+    <t>Through-lane dedicated to busses.</t>
+  </si>
+  <si>
+    <t>Through-lane dedicated to bicycles or other vehicles of similar shape and speed.</t>
+  </si>
+  <si>
+    <t>Through-lane dedicated to pedestrians, usually (but not always) on a raised curb</t>
+  </si>
+  <si>
+    <t>"Dedicated" means "primarily intended for." In each of these cases mixed traffic may be permitted and a meta tag will indicate what kind of mixing is allowed.</t>
+  </si>
+  <si>
+    <t>accessible</t>
+  </si>
+  <si>
+    <t>Sidewalk meets accessibility regulations (e.g. ADA in the US)</t>
+  </si>
+  <si>
+    <t>Whether the bus lane is dedicated to bus rapid transit as opposed to regular buses.</t>
+  </si>
+  <si>
+    <t>A through-lane with fixed infrastructure (e.g. rail-based transit)</t>
+  </si>
+  <si>
+    <t>A string value indicating the type of rail transit (trolley, light rail, heavy rail)</t>
+  </si>
+  <si>
+    <t>Whether the transit lane permits automobiles.</t>
+  </si>
+  <si>
+    <t>autos_allowed</t>
+  </si>
+  <si>
+    <t>bus_allowed</t>
+  </si>
+  <si>
+    <t>Whether the transit lane permits non-fixed-rail transit, e.g. buses</t>
+  </si>
+  <si>
+    <t>see above</t>
+  </si>
+  <si>
+    <t>A specially designated through-lane intended for any non-automotive vehicle.</t>
+  </si>
+  <si>
+    <t>flex_zone</t>
+  </si>
+  <si>
+    <t>A lane dedicated for automobile parking.</t>
+  </si>
+  <si>
+    <t>A parking area converted to a pedestrian-use area.</t>
+  </si>
+  <si>
+    <t>Generic designation for a curb zone with varying uses.</t>
+  </si>
+  <si>
+    <t>freight_loading</t>
+  </si>
+  <si>
+    <t>passenger_loading</t>
+  </si>
+  <si>
+    <t>A loading zone, primarily for passenger pickup/dropoff.</t>
+  </si>
+  <si>
+    <t>A loading zone, primarily for the loading and unloading of goods</t>
+  </si>
+  <si>
+    <t>Any slice that has been reconfigured for a temporary purpose, e.g construction</t>
+  </si>
+  <si>
+    <t>barrier_type</t>
+  </si>
+  <si>
+    <t>If the slice is a barrier, type of barrier (e.g. traffic cone, jersey barrier, fencing, etc)</t>
+  </si>
+  <si>
+    <t>What is this temporary purpose (e.g. construction, event)</t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t>A zone where commerce is permitted, e.g. food trucks, farmer's markets, newstands</t>
+  </si>
+  <si>
+    <t>transit_shelter</t>
+  </si>
+  <si>
+    <t>An area / platform for waiting for transit</t>
+  </si>
+  <si>
+    <t>auto_parking</t>
+  </si>
+  <si>
+    <t>bike_parking</t>
+  </si>
+  <si>
+    <t>bike_share</t>
+  </si>
+  <si>
+    <t>scooter_parking</t>
+  </si>
+  <si>
+    <t>planting_strip</t>
+  </si>
+  <si>
+    <t>canal</t>
+  </si>
+  <si>
+    <t>A water channel</t>
+  </si>
+  <si>
+    <t>An area for plants, primarily for decorative purposes (though it can have an ecological impact). Usually placed in a sidewalk (as opposed to a median) This differentiates this from:</t>
+  </si>
+  <si>
+    <t>filter_strip</t>
+  </si>
+  <si>
+    <t>An area designated for stormwater management, which is usually (but not required to be) vegetated.</t>
+  </si>
+  <si>
+    <t>Curb zones are the liminal space between through traffic and a pedestrian zone which have usually been reserved for automobile parking, but more recently, segments of the curb zone have been chopped up and designated for other uses. Therefore curb zones may be portions of slices from point A to B. Note that there is a very fine line between some types of uses in a curb zone and miscellaneous objects.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +761,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -555,7 +805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -563,6 +813,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,20 +1110,20 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="32.83984375" customWidth="1"/>
-    <col min="3" max="3" width="20.9453125" customWidth="1"/>
-    <col min="4" max="4" width="18.3125" customWidth="1"/>
-    <col min="5" max="5" width="77.20703125" customWidth="1"/>
+    <col min="1" max="2" width="32.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="77.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,7 +1140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -896,7 +1157,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>117</v>
       </c>
@@ -913,7 +1174,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -930,7 +1191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -947,7 +1208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -964,7 +1225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -981,7 +1242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -998,7 +1259,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1015,7 +1276,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1032,7 +1293,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1049,7 +1310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -1066,7 +1327,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -1083,7 +1344,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1100,7 +1361,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -1117,7 +1378,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1134,7 +1395,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -1151,7 +1412,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1168,7 +1429,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -1185,7 +1446,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1202,7 +1463,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>71</v>
       </c>
@@ -1219,7 +1480,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>73</v>
       </c>
@@ -1236,7 +1497,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>74</v>
       </c>
@@ -1253,7 +1514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>75</v>
       </c>
@@ -1270,7 +1531,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>77</v>
       </c>
@@ -1287,7 +1548,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>79</v>
       </c>
@@ -1304,7 +1565,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>81</v>
       </c>
@@ -1321,7 +1582,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>83</v>
       </c>
@@ -1338,7 +1599,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>85</v>
       </c>
@@ -1355,7 +1616,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>87</v>
       </c>
@@ -1372,7 +1633,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>89</v>
       </c>
@@ -1389,7 +1650,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>90</v>
       </c>
@@ -1406,7 +1667,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -1423,7 +1684,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
@@ -1440,7 +1701,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>95</v>
       </c>
@@ -1457,7 +1718,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -1474,7 +1735,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -1491,7 +1752,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -1508,7 +1769,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -1540,7 +1801,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1554,22 +1815,22 @@
       <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.734375" customWidth="1"/>
-    <col min="2" max="2" width="11.7890625" customWidth="1"/>
-    <col min="3" max="3" width="33.89453125" customWidth="1"/>
-    <col min="4" max="4" width="20.89453125" customWidth="1"/>
-    <col min="5" max="5" width="26.83984375" customWidth="1"/>
-    <col min="6" max="6" width="52.05078125" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="33.90625" customWidth="1"/>
+    <col min="4" max="4" width="20.90625" customWidth="1"/>
+    <col min="5" max="5" width="26.81640625" customWidth="1"/>
+    <col min="6" max="6" width="52.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1589,7 +1850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>115</v>
       </c>
@@ -1607,7 +1868,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>120</v>
       </c>
@@ -1625,7 +1886,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>122</v>
       </c>
@@ -1643,7 +1904,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>125</v>
@@ -1661,7 +1922,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>126</v>
@@ -1679,7 +1940,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>127</v>
@@ -1697,7 +1958,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>128</v>
@@ -1715,7 +1976,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>131</v>
       </c>
@@ -1740,26 +2001,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14113956-9C41-4528-BBB9-AD2809B184AF}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.3671875" customWidth="1"/>
-    <col min="3" max="3" width="30.1015625" customWidth="1"/>
-    <col min="4" max="4" width="28.15625" customWidth="1"/>
-    <col min="5" max="5" width="76.05078125" customWidth="1"/>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
+    <col min="3" max="3" width="30.08984375" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" customWidth="1"/>
+    <col min="5" max="5" width="76.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>138</v>
       </c>
@@ -1776,35 +2043,477 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>140</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C12" t="s">
         <v>129</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D12" t="s">
         <v>142</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>141</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
         <v>129</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
-        <v>143</v>
-      </c>
+      <c r="E26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>201</v>
+      </c>
+      <c r="E38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>206</v>
+      </c>
+      <c r="E52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>211</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>217</v>
+      </c>
+      <c r="E54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>218</v>
+      </c>
+      <c r="E56" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B721FB9B-3A1D-44D1-9FCF-EF40E2A9A2E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{472B9B76-4B00-46A5-9E9E-867015977571}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="235">
   <si>
     <t>Field name</t>
   </si>
@@ -495,12 +495,282 @@
   <si>
     <t xml:space="preserve">This denotes a through-lane intended for automobile traffic. </t>
   </si>
+  <si>
+    <t>(all)</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>paving</t>
+  </si>
+  <si>
+    <t>Meta tags permitted on all slices</t>
+  </si>
+  <si>
+    <t>A string value indicating painted color for the slice (e.g. "red" is common for bus lanes, "green" or "blue" for bike lanes). Allow some other descriptive words for special patterns or artwork</t>
+  </si>
+  <si>
+    <t>curb_height</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>A string value indicating the paving material of the surface, e.g. "asphalt", "concrete", "cobblestone", "dirt", etc. (There should be some attempt at standardizing common values but allow custom values to be used.) This should not be a required value because specific slices can assume default values, e.g. the default value of paving for a drive_lane, if not specified, is "asphalt". Allow "none" if slice is not paved; e.g. plants, water</t>
+  </si>
+  <si>
+    <t>A relative number for the height of the surface. Rather than deal with specific measurements (which can vary depending on elevation and other factors) we (that is, Streetmix) uses 0 to indicate a road surface and 1 for a raised sidewalk surface. If there is no height difference between the drive_lane and sidewalk areas, the values will both be 0. A surface at half-curb-height is 0.5. Ditches are given negative values. Raised platforms can be given any number above 1 that represents a relative scale factor compared to the difference in height between the sidewalk curb and road surface (e.g. 2, 2.5, 3, etc)</t>
+  </si>
+  <si>
+    <t>bike_lane</t>
+  </si>
+  <si>
+    <t>sidewalk</t>
+  </si>
+  <si>
+    <t>transitions</t>
+  </si>
+  <si>
+    <t>turn_lane</t>
+  </si>
+  <si>
+    <t>limitless</t>
+  </si>
+  <si>
+    <t>bus_lane</t>
+  </si>
+  <si>
+    <t>brt</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>transit</t>
+  </si>
+  <si>
+    <t>Whether the bus lane allows bikes (may have a sharrow stamp)</t>
+  </si>
+  <si>
+    <t>bikes_allowed</t>
+  </si>
+  <si>
+    <t>taxi_allowed</t>
+  </si>
+  <si>
+    <t>Whether the bus lane allows taxis (or other shared mobility)</t>
+  </si>
+  <si>
+    <t>parklet</t>
+  </si>
+  <si>
+    <t>VERY ROUGH DRAFT!</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>buffer</t>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>A lane where automobiles are taken out of traffic flow in order to queue for turning</t>
+  </si>
+  <si>
+    <t>A turn_lane may have a sharrow stamp</t>
+  </si>
+  <si>
+    <t>NON-AUTOMOTIVE (DEDICATED)</t>
+  </si>
+  <si>
+    <t>AUTOMOTIVE (DEDICATED)</t>
+  </si>
+  <si>
+    <t>CURB ZONE</t>
+  </si>
+  <si>
+    <t>MIXED LANES</t>
+  </si>
+  <si>
+    <t>MISCELLANEOUS</t>
+  </si>
+  <si>
+    <t>Through-lane dedicated to busses.</t>
+  </si>
+  <si>
+    <t>Through-lane dedicated to bicycles or other vehicles of similar shape and speed.</t>
+  </si>
+  <si>
+    <t>Through-lane dedicated to pedestrians, usually (but not always) on a raised curb</t>
+  </si>
+  <si>
+    <t>"Dedicated" means "primarily intended for." In each of these cases mixed traffic may be permitted and a meta tag will indicate what kind of mixing is allowed.</t>
+  </si>
+  <si>
+    <t>accessible</t>
+  </si>
+  <si>
+    <t>Sidewalk meets accessibility regulations (e.g. ADA in the US)</t>
+  </si>
+  <si>
+    <t>Whether the bus lane is dedicated to bus rapid transit as opposed to regular buses.</t>
+  </si>
+  <si>
+    <t>A through-lane with fixed infrastructure (e.g. rail-based transit)</t>
+  </si>
+  <si>
+    <t>A string value indicating the type of rail transit (trolley, light rail, heavy rail)</t>
+  </si>
+  <si>
+    <t>Whether the transit lane permits automobiles.</t>
+  </si>
+  <si>
+    <t>autos_allowed</t>
+  </si>
+  <si>
+    <t>bus_allowed</t>
+  </si>
+  <si>
+    <t>Whether the transit lane permits non-fixed-rail transit, e.g. buses</t>
+  </si>
+  <si>
+    <t>see above</t>
+  </si>
+  <si>
+    <t>A specially designated through-lane intended for any non-automotive vehicle.</t>
+  </si>
+  <si>
+    <t>flex_zone</t>
+  </si>
+  <si>
+    <t>A lane dedicated for automobile parking.</t>
+  </si>
+  <si>
+    <t>A parking area converted to a pedestrian-use area.</t>
+  </si>
+  <si>
+    <t>Generic designation for a curb zone with varying uses.</t>
+  </si>
+  <si>
+    <t>freight_loading</t>
+  </si>
+  <si>
+    <t>passenger_loading</t>
+  </si>
+  <si>
+    <t>A loading zone, primarily for passenger pickup/dropoff.</t>
+  </si>
+  <si>
+    <t>A loading zone, primarily for the loading and unloading of goods</t>
+  </si>
+  <si>
+    <t>Any slice that has been reconfigured for a temporary purpose, e.g construction</t>
+  </si>
+  <si>
+    <t>barrier_type</t>
+  </si>
+  <si>
+    <t>If the slice is a barrier, type of barrier (e.g. traffic cone, jersey barrier, fencing, etc)</t>
+  </si>
+  <si>
+    <t>What is this temporary purpose (e.g. construction, event)</t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t>A zone where commerce is permitted, e.g. food trucks, farmer's markets, newstands</t>
+  </si>
+  <si>
+    <t>transit_shelter</t>
+  </si>
+  <si>
+    <t>An area / platform for waiting for transit</t>
+  </si>
+  <si>
+    <t>auto_parking</t>
+  </si>
+  <si>
+    <t>bike_parking</t>
+  </si>
+  <si>
+    <t>bike_share</t>
+  </si>
+  <si>
+    <t>planting_strip</t>
+  </si>
+  <si>
+    <t>canal</t>
+  </si>
+  <si>
+    <t>A water channel</t>
+  </si>
+  <si>
+    <t>An area for plants, primarily for decorative purposes (though it can have an ecological impact). Usually placed in a sidewalk (as opposed to a median) This differentiates this from:</t>
+  </si>
+  <si>
+    <t>filter_strip</t>
+  </si>
+  <si>
+    <t>An area designated for stormwater management, which is usually (but not required to be) vegetated.</t>
+  </si>
+  <si>
+    <t>Curb zones are the liminal space between through traffic and a pedestrian zone which have usually been reserved for automobile parking, but more recently, segments of the curb zone have been chopped up and designated for other uses. Therefore curb zones may be portions of slices from point A to B. Note that there is a very fine line between some types of uses in a curb zone and miscellaneous objects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A zone where some designated of bicycle parking will be placed. </t>
+  </si>
+  <si>
+    <t>dockless_parking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A zone where a docked bicycle share installation will be placed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A zone where dockless bicycle shared or scooters can be parked. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The type of median allowed. Possible values include: cement, vegetated, vegetated with trees, stone, brick, other. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A raised street slice whose elements  are in the center of the street. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A raised street slice whose elements typically provide some degree of protection to a multimodal lane such as a bike lane. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The type of buffer allowed. Possible values include: cement, vegetated, vegetated with trees, stone, brick, other. </t>
+  </si>
+  <si>
+    <t>Definition in flux, but these transition properties describe how the edge of one slice should transition to a neighboring slice based on some criteria. E.g. a drive_lane next to another_drive lane might have a transition of a broken white line. A raised curb next to an asphant-paved slice might have a gutter, or a ramp, or other types of transitions.</t>
+  </si>
+  <si>
+    <t>Sub-Meta Tags</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This denotes how end point transitions are defined in the specification. They are in the form: {index_position_of_connecting_street_slice: transition_type}. The index position indicates where the connecting slice is on the other street, and the transition type can have the values of : angled, s-shaped, offset, and semi-circle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This denotes how start point transitions are defined in the specification. They are in the form: {index_position_of_connecting_street_slice: transition_type}. The index position indicates where the connecting slice is on the other street, and the transition type can have the values of : angled, s-shaped, offset, and semi-circle. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +794,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -555,13 +838,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,16 +1145,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="32.83984375" customWidth="1"/>
-    <col min="3" max="3" width="20.9453125" customWidth="1"/>
-    <col min="4" max="4" width="18.3125" customWidth="1"/>
-    <col min="5" max="5" width="77.20703125" customWidth="1"/>
+    <col min="1" max="2" width="32.7890625" customWidth="1"/>
+    <col min="3" max="3" width="20.89453125" customWidth="1"/>
+    <col min="4" max="4" width="18.26171875" customWidth="1"/>
+    <col min="5" max="5" width="77.15625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1550,7 +1850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE16D9-6B4A-4B97-84C9-4C29085A06C3}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
@@ -1560,8 +1860,8 @@
     <col min="2" max="2" width="11.7890625" customWidth="1"/>
     <col min="3" max="3" width="33.89453125" customWidth="1"/>
     <col min="4" max="4" width="20.89453125" customWidth="1"/>
-    <col min="5" max="5" width="26.83984375" customWidth="1"/>
-    <col min="6" max="6" width="52.05078125" customWidth="1"/>
+    <col min="5" max="5" width="26.7890625" customWidth="1"/>
+    <col min="6" max="6" width="52.1015625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1740,26 +2040,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14113956-9C41-4528-BBB9-AD2809B184AF}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="20.3671875" customWidth="1"/>
-    <col min="3" max="3" width="30.1015625" customWidth="1"/>
-    <col min="4" max="4" width="28.15625" customWidth="1"/>
-    <col min="5" max="5" width="76.05078125" customWidth="1"/>
+    <col min="1" max="1" width="15.89453125" customWidth="1"/>
+    <col min="2" max="3" width="20.3671875" customWidth="1"/>
+    <col min="4" max="4" width="30.1015625" customWidth="1"/>
+    <col min="5" max="5" width="28.15625" customWidth="1"/>
+    <col min="6" max="6" width="76.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>138</v>
       </c>
@@ -1767,44 +2073,597 @@
         <v>139</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1" ht="29.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
         <v>140</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D14" t="s">
         <v>129</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E14" t="s">
         <v>142</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
         <v>141</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" t="s">
         <v>129</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
-        <v>143</v>
-      </c>
+      <c r="F28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>213</v>
+      </c>
+      <c r="E44" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>172</v>
+      </c>
+      <c r="E52" t="s">
+        <v>147</v>
+      </c>
+      <c r="F52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" t="s">
+        <v>204</v>
+      </c>
+      <c r="F54" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>209</v>
+      </c>
+      <c r="E55" t="s">
+        <v>147</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E56" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>218</v>
+      </c>
+      <c r="E57" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>215</v>
+      </c>
+      <c r="E58" t="s">
+        <v>147</v>
+      </c>
+      <c r="F58" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A18:B18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{472B9B76-4B00-46A5-9E9E-867015977571}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5225A954-22A2-4055-8707-22B28F1B6FC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
-    <sheet name="Crosswalk (In Progress)" sheetId="3" r:id="rId2"/>
+    <sheet name="Crosswalk" sheetId="3" r:id="rId2"/>
     <sheet name="Slice Cross-section Spec" sheetId="2" r:id="rId3"/>
     <sheet name="Slice Types" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="242">
   <si>
     <t>Field name</t>
   </si>
@@ -386,9 +386,6 @@
   </si>
   <si>
     <t>sharedstreetid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SharedStreets ID for the specific segment of interest. This should be a unique ID. </t>
   </si>
   <si>
     <t>slices</t>
@@ -505,18 +502,12 @@
     <t>No</t>
   </si>
   <si>
-    <t>paving</t>
-  </si>
-  <si>
     <t>Meta tags permitted on all slices</t>
   </si>
   <si>
     <t>A string value indicating painted color for the slice (e.g. "red" is common for bus lanes, "green" or "blue" for bike lanes). Allow some other descriptive words for special patterns or artwork</t>
   </si>
   <si>
-    <t>curb_height</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
@@ -764,6 +755,36 @@
   </si>
   <si>
     <t xml:space="preserve">This denotes how start point transitions are defined in the specification. They are in the form: {index_position_of_connecting_street_slice: transition_type}. The index position indicates where the connecting slice is on the other street, and the transition type can have the values of : angled, s-shaped, offset, and semi-circle. </t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SharedStreets ID for the specific segment of a consolidated centerline (no dual carriageways). This should be a unique ID. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: Represents a web readable geojson layer with both line geometry and nested slices identified. This helps create a web transferable layer for application development. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SharedStreets ID for the specific segment of a consolidated centerline (no dual carriageways). This should be a unique ID. When working with a crosswalk file, this ID can repeat. </t>
+  </si>
+  <si>
+    <t>RowIndex</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A numeric index starting at 0 to the number of slices in the current SharedStreetID segment. The RowIndex with a SharedStreetID should be a unique ID if used in combination. </t>
+  </si>
+  <si>
+    <t>This denotes any other metadata to be associated with the slice. Consists of a list of tags in the formate: "tag_name"=&gt;tag_value;"tag_name_2"=&gt;tag_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: A share-row-crosswalk consists of each row representing a slice of a shared-street id. Intended to allow the conversion between Additive and Sliced based specifications in an editable GIS/SQL database. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: Consists of a line geometry file that is a flat table consisting of standardized right of way description fields. Each shared-row-id considered unique, and represents a single consolidated centerline for a street (no dual carriageways). Provides a GIS/SQL compatible database schema. </t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1167,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1162,6 +1183,11 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>241</v>
+      </c>
+    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>0</v>
@@ -1196,7 +1222,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>117</v>
       </c>
@@ -1210,7 +1236,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1834,24 +1860,207 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F3E168-994C-406C-B158-8312D24CB96A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.62890625" customWidth="1"/>
+    <col min="2" max="2" width="50.3125" customWidth="1"/>
+    <col min="3" max="3" width="29.83984375" customWidth="1"/>
+    <col min="4" max="4" width="39.26171875" customWidth="1"/>
+    <col min="5" max="5" width="50.83984375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE16D9-6B4A-4B97-84C9-4C29085A06C3}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1869,12 +2078,17 @@
         <v>19</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>234</v>
+      </c>
+    </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>114</v>
@@ -1922,49 +2136,49 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -1976,13 +2190,13 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1994,42 +2208,60 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>136</v>
+      <c r="F14" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2042,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14113956-9C41-4528-BBB9-AD2809B184AF}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2057,23 +2289,23 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -2087,334 +2319,334 @@
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="29.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F26" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2422,237 +2654,237 @@
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F34" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" t="s">
         <v>195</v>
-      </c>
-      <c r="E37" t="s">
-        <v>147</v>
-      </c>
-      <c r="F37" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F38" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F39" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" t="s">
         <v>199</v>
-      </c>
-      <c r="E40" t="s">
-        <v>147</v>
-      </c>
-      <c r="F40" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F41" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F42" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F43" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F44" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F45" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F48" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F49" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F50" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F51" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F52" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F53" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F54" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
+        <v>211</v>
+      </c>
+      <c r="E56" t="s">
+        <v>146</v>
+      </c>
+      <c r="F56" t="s">
         <v>214</v>
-      </c>
-      <c r="E56" t="s">
-        <v>147</v>
-      </c>
-      <c r="F56" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F57" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F58" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,27 +3,34 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5225A954-22A2-4055-8707-22B28F1B6FC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6534DD7-F77E-42CC-A3AB-8AA8F1683BAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
     <sheet name="Crosswalk" sheetId="3" r:id="rId2"/>
     <sheet name="Slice Cross-section Spec" sheetId="2" r:id="rId3"/>
     <sheet name="Slice Types" sheetId="4" r:id="rId4"/>
+    <sheet name="Additive_Fields_Arc" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="245">
   <si>
     <t>Field name</t>
   </si>
@@ -785,6 +792,15 @@
   </si>
   <si>
     <t xml:space="preserve">Description: Consists of a line geometry file that is a flat table consisting of standardized right of way description fields. Each shared-row-id considered unique, and represents a single consolidated centerline for a street (no dual carriageways). Provides a GIS/SQL compatible database schema. </t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Name_Shp</t>
+  </si>
+  <si>
+    <t>Double</t>
   </si>
 </sst>
 </file>
@@ -1164,10 +1180,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1860,6 +1879,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F3E168-994C-406C-B158-8312D24CB96A}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2057,10 +2079,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE16D9-6B4A-4B97-84C9-4C29085A06C3}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2272,6 +2297,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14113956-9C41-4528-BBB9-AD2809B184AF}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -2898,4 +2926,559 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D7CED4-0E90-4B5E-B1A2-0DCFB3B6AEBF}">
+  <sheetPr>
+    <tabColor theme="0" tint="-4.9989318521683403E-2"/>
+  </sheetPr>
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="31.1015625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="16.26171875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6534DD7-F77E-42CC-A3AB-8AA8F1683BAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CB284F-5A18-4FC7-8979-30A3A9B0140B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="1332" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
     <sheet name="Crosswalk" sheetId="3" r:id="rId2"/>
     <sheet name="Slice Cross-section Spec" sheetId="2" r:id="rId3"/>
     <sheet name="Slice Types" sheetId="4" r:id="rId4"/>
-    <sheet name="Additive_Fields_Arc" sheetId="5" r:id="rId5"/>
+    <sheet name="Additive_Fields_Arc" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1185,8 +1185,8 @@
   </sheetPr>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2935,7 +2935,7 @@
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>71</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>73</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>74</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>75</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>77</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
         <v>79</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
         <v>81</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
         <v>89</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CB284F-5A18-4FC7-8979-30A3A9B0140B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DDF23F-0C9C-4EC1-A4FD-8C4DEA38A3D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="1332" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="258">
   <si>
     <t>Field name</t>
   </si>
@@ -248,9 +248,6 @@
     <t>Left_Sidewalk_Frontage_Zone</t>
   </si>
   <si>
-    <t>Width in meters of the Left sidewalk where pedestrians would walk.</t>
-  </si>
-  <si>
     <t>Left_Sidewalk_Through_Zone</t>
   </si>
   <si>
@@ -260,61 +257,34 @@
     <t>Left_Through_Lane_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Width in meters of the Left most drive lane closest to the curb. This can often be referred to as a curbside lane. If this type of lane does not exist, the value is zero. </t>
-  </si>
-  <si>
     <t>Left_Through_Lane_2</t>
   </si>
   <si>
-    <t xml:space="preserve">Width in meters of the second Left most drive lane. If this type of lane does not exist, the value is zero. </t>
-  </si>
-  <si>
     <t>Left_Through_Lane_3</t>
   </si>
   <si>
-    <t xml:space="preserve">Width in meters of the third Left most drive lane. If this type of lane does not exist, the value is zero. </t>
-  </si>
-  <si>
     <t>Left_Through_Lane_4</t>
   </si>
   <si>
-    <t xml:space="preserve">Width in meters of the fourth Left most drive lane. If this type of lane does not exist, the value is zero. </t>
-  </si>
-  <si>
     <t>Left_Through_Lane_X</t>
   </si>
   <si>
-    <t xml:space="preserve">Width in meters of any additional lanes that might be on the Left side of the street. The number will just increase to accommodate for an additive specification, but it is an optional element. If this type of lane does not exist, the value is zero. </t>
-  </si>
-  <si>
     <t>Left_Bike_Lane</t>
   </si>
   <si>
-    <t xml:space="preserve">Width of the Left bicycle lane in meters. </t>
-  </si>
-  <si>
     <t>Left_Bike_Buffer</t>
   </si>
   <si>
-    <t xml:space="preserve">Width in meters of a Left bicycle buffer. </t>
-  </si>
-  <si>
     <t>Left_Bike_Buffer_Meta</t>
   </si>
   <si>
     <t>Left_Parking_Lane</t>
   </si>
   <si>
-    <t xml:space="preserve">Width in meters of the Left parking lane. It is possible this zone is more complex than being just on-street parking, but it will be used to describe the width of a curbside zone that is not intended for traversal. </t>
-  </si>
-  <si>
     <t>Left_Parking_Lane_Meta</t>
   </si>
   <si>
     <t>Left_Transit_Lane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Width in meters of a Left transit lane dedicated to moving high occupancy modes such as bus lanes, HOV lanes, and other types of lane. Defaults to describing a bus lane. </t>
   </si>
   <si>
     <t>Left_Transit_Meta</t>
@@ -801,6 +771,75 @@
   </si>
   <si>
     <t>Double</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width in meters of the right sidewalk between adjacent land uses and the pedestrian through zone. </t>
+  </si>
+  <si>
+    <t>Width in meters of the left sidewalk where pedestrians would walk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width in meters of the left most drive lane closest to the curb. This can often be referred to as a curbside lane. If this type of lane does not exist, the value is zero. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width in meters of the second left most drive lane. If this type of lane does not exist, the value is zero. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width in meters of the third left most drive lane. If this type of lane does not exist, the value is zero. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width in meters of the fourth left most drive lane. If this type of lane does not exist, the value is zero. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width in meters of any additional lanes that might be on the left side of the street. The number will just increase to accommodate for an additive specification, but it is an optional element. If this type of lane does not exist, the value is zero. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width of the left bicycle lane in meters. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width in meters of a left bicycle buffer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width in meters of the left parking lane. It is possible this zone is more complex than being just on-street parking, but it will be used to describe the width of a curbside zone that is not intended for traversal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width in meters of a left transit lane dedicated to moving high occupancy modes such as bus lanes, HOV lanes, and other types of lane. Defaults to describing a bus lane. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width in meters of the left sidewalk between adjacent land uses and the pedestrian through zone. </t>
+  </si>
+  <si>
+    <t>Left_Sidewalk_Furniture_Meta</t>
+  </si>
+  <si>
+    <t>LSFW_Furn_M</t>
+  </si>
+  <si>
+    <t>This metatag descripts the type of furniture zone being placed based on the following categories: [street_trees_in_planted_buffer, street_trees_in_curb_cuts, planted_buffer, filter_buffer, transit_shelter, complex]</t>
+  </si>
+  <si>
+    <t>Right_Sidewalk_Furniture_Meta</t>
+  </si>
+  <si>
+    <t>RSFW_Furn_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This metatag descripts the type of furniture zone being placed based on the following categories: [street_trees_in_planted_buffer, street_trees_in_curb_cuts, planted_buffer, filter_buffer, transit_shelter, complex]. </t>
+  </si>
+  <si>
+    <t>Right_Sidewalk_Through_Meta</t>
+  </si>
+  <si>
+    <t>RSW_Thru_M</t>
+  </si>
+  <si>
+    <t>In cases where the lines being described are not typical concrete sidewalks, this can be used to described segments that have special properties such as paths or gravel segments. The following categories are possible: [concrete, ashpalt_path, gravel, compacted_soil]</t>
+  </si>
+  <si>
+    <t>Left_Sidewalk_Through_Meta</t>
+  </si>
+  <si>
+    <t>LSW_Thru_M</t>
   </si>
 </sst>
 </file>
@@ -1183,10 +1222,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1204,7 +1243,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1238,27 +1277,27 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1272,7 +1311,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1292,29 +1331,29 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>253</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>254</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -1323,32 +1362,32 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
@@ -1357,15 +1396,15 @@
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
@@ -1374,32 +1413,32 @@
         <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>6</v>
@@ -1408,49 +1447,49 @@
         <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>6</v>
@@ -1459,15 +1498,15 @@
         <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>48</v>
@@ -1476,15 +1515,15 @@
         <v>15</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>6</v>
@@ -1493,15 +1532,15 @@
         <v>2</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>48</v>
@@ -1510,100 +1549,100 @@
         <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
@@ -1612,32 +1651,32 @@
         <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>6</v>
@@ -1646,49 +1685,49 @@
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>6</v>
@@ -1697,15 +1736,15 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>6</v>
@@ -1714,66 +1753,66 @@
         <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>88</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>55</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" t="s">
-        <v>43</v>
+        <v>80</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>6</v>
@@ -1782,15 +1821,15 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" t="s">
-        <v>44</v>
+        <v>81</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>48</v>
@@ -1799,15 +1838,15 @@
         <v>15</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>6</v>
@@ -1816,58 +1855,126 @@
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" t="s">
-        <v>61</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" t="s">
-        <v>48</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="s">
-        <v>59</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>113</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1899,7 +2006,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1933,66 +2040,66 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -2001,15 +2108,15 @@
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -2018,58 +2125,58 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2105,7 +2212,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2113,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -2130,80 +2237,80 @@
     </row>
     <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -2215,13 +2322,13 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -2233,60 +2340,60 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2302,7 +2409,7 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2317,23 +2424,23 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -2347,334 +2454,334 @@
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="29.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F20" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F22" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F26" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2682,237 +2789,237 @@
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F34" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F38" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E39" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F39" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F40" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F41" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E42" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F42" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F43" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" t="s">
         <v>210</v>
-      </c>
-      <c r="E44" t="s">
-        <v>146</v>
-      </c>
-      <c r="F44" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E45" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F45" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F49" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F50" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F51" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F52" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F53" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F54" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E55" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E56" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F56" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E57" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F57" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E58" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F58" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2933,10 +3040,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2948,10 +3055,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2962,13 +3069,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -2982,7 +3089,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -2996,105 +3103,105 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>253</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>244</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>244</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -3102,41 +3209,41 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -3144,10 +3251,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>48</v>
@@ -3158,13 +3265,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -3172,10 +3279,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>48</v>
@@ -3186,13 +3293,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>244</v>
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -3200,41 +3307,41 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>244</v>
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>234</v>
       </c>
       <c r="D20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>244</v>
+        <v>48</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -3242,27 +3349,27 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -3270,27 +3377,27 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>244</v>
+        <v>48</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -3298,13 +3405,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>244</v>
+        <v>48</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -3312,27 +3419,27 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -3340,13 +3447,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
@@ -3354,55 +3461,55 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="D30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="D32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
+        <v>80</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -3410,10 +3517,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
+        <v>81</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>48</v>
@@ -3423,58 +3530,114 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" t="s">
-        <v>60</v>
+      <c r="A35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
         <v>57</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B40" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="C40" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
         <v>58</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B41" t="s">
         <v>62</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C41" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D41" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
         <v>59</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B42" t="s">
         <v>63</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C42" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D42" s="2">
         <v>1</v>
       </c>
     </row>

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DDF23F-0C9C-4EC1-A4FD-8C4DEA38A3D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22614ECB-A5FF-451D-8DEE-9DCD97B365A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="259">
   <si>
     <t>Field name</t>
   </si>
@@ -827,19 +827,22 @@
     <t xml:space="preserve">This metatag descripts the type of furniture zone being placed based on the following categories: [street_trees_in_planted_buffer, street_trees_in_curb_cuts, planted_buffer, filter_buffer, transit_shelter, complex]. </t>
   </si>
   <si>
-    <t>Right_Sidewalk_Through_Meta</t>
-  </si>
-  <si>
-    <t>RSW_Thru_M</t>
-  </si>
-  <si>
-    <t>In cases where the lines being described are not typical concrete sidewalks, this can be used to described segments that have special properties such as paths or gravel segments. The following categories are possible: [concrete, ashpalt_path, gravel, compacted_soil]</t>
-  </si>
-  <si>
-    <t>Left_Sidewalk_Through_Meta</t>
-  </si>
-  <si>
-    <t>LSW_Thru_M</t>
+    <t>Off_Street_Width</t>
+  </si>
+  <si>
+    <t>Off_Street_Meta</t>
+  </si>
+  <si>
+    <t>Off_St_W</t>
+  </si>
+  <si>
+    <t>Off_St_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width in meters of an off-street path facility or gravel road that does not have clear delinations for direction that runs parallel to the segment or is the segment being described (all other attributes are zero). </t>
+  </si>
+  <si>
+    <t>This describes the type of off-street facility being represented. Can be taken from the following categories: [asphalt, gravel, dirt]</t>
   </si>
 </sst>
 </file>
@@ -1222,10 +1225,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1331,22 +1334,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>255</v>
-      </c>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
@@ -1654,63 +1647,63 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
-        <v>256</v>
+        <v>73</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>257</v>
+        <v>88</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D31" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
@@ -1719,15 +1712,15 @@
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>6</v>
@@ -1736,15 +1729,15 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>6</v>
@@ -1753,49 +1746,49 @@
         <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>6</v>
@@ -1804,117 +1797,117 @@
         <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>55</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>6</v>
@@ -1923,32 +1916,32 @@
         <v>2</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>6</v>
+        <v>62</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
@@ -1957,24 +1950,41 @@
         <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" t="s">
-        <v>48</v>
+        <v>255</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>103</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>254</v>
+      </c>
+      <c r="B48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2409,8 +2419,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3042,8 +3052,8 @@
   </sheetPr>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3109,29 +3119,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>253</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>234</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -3139,13 +3149,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -3153,10 +3163,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>234</v>
@@ -3167,10 +3177,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>234</v>
@@ -3181,10 +3191,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>234</v>
@@ -3195,38 +3205,38 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>234</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>234</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>234</v>
@@ -3237,97 +3247,97 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>234</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>234</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>234</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>234</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>234</v>
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -3335,38 +3345,38 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
+        <v>71</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="D21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>234</v>
       </c>
       <c r="D22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>234</v>
@@ -3377,24 +3387,24 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>234</v>
@@ -3405,13 +3415,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -3419,10 +3429,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>234</v>
@@ -3433,10 +3443,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>234</v>
@@ -3447,24 +3457,24 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>234</v>
       </c>
       <c r="D29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>234</v>
@@ -3475,38 +3485,38 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>234</v>
       </c>
       <c r="D31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>234</v>
+        <v>48</v>
       </c>
       <c r="D32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>234</v>
@@ -3517,10 +3527,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>48</v>
@@ -3531,10 +3541,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>234</v>
@@ -3545,10 +3555,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>48</v>
@@ -3558,11 +3568,11 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2" t="s">
-        <v>84</v>
+      <c r="A37" t="s">
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>234</v>
@@ -3572,56 +3582,56 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2" t="s">
-        <v>85</v>
+      <c r="A38" t="s">
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="D38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>234</v>
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
       </c>
       <c r="D39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>234</v>
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
       </c>
       <c r="D40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>253</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" t="s">
-        <v>48</v>
+        <v>255</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -3629,12 +3639,12 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>254</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" t="s">
+        <v>256</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="2">

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22614ECB-A5FF-451D-8DEE-9DCD97B365A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735A9900-B3C2-4DC5-BA72-ABAFB52B4A8C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="266">
   <si>
     <t>Field name</t>
   </si>
@@ -197,9 +197,6 @@
     <t>R_Prk_Meta</t>
   </si>
   <si>
-    <t>This describes the type of buffer that exists in the street based on the type. The possible categories are [paint,post,curb,planter].</t>
-  </si>
-  <si>
     <t>End_Crosswalk_Width</t>
   </si>
   <si>
@@ -224,12 +221,6 @@
     <t>B_X_W_Meta</t>
   </si>
   <si>
-    <t xml:space="preserve">This describes the parking parking zone type based on a few cateogories: [parking, passenger_loading,freight_loading,parklet]. It is not assumed that the entire curb is taken up by one of these uses, but just that it has atleast one of them. </t>
-  </si>
-  <si>
-    <t>This describes transit lane type from the following categories: [bus,hov,rail,]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Width in meters of the center lane or median that cannot be described by right or left. It typically refers to a median. </t>
   </si>
   <si>
@@ -242,9 +233,6 @@
     <t xml:space="preserve">Width in meters of the right parking lane. It is possible this zone is more complex than being just on-street parking, but it will be used to describe the width of a curbside zone that is not intended for traversal. </t>
   </si>
   <si>
-    <t>This describes the type of center lane from the following categories: [median,turn_lane,boulevard,barrier,median_turn_lane]</t>
-  </si>
-  <si>
     <t>Left_Sidewalk_Frontage_Zone</t>
   </si>
   <si>
@@ -336,12 +324,6 @@
   </si>
   <si>
     <t xml:space="preserve">SharedStreets geometry compliant LineString that is in WGS Coordinates. The orientation of right vs. left is based the the order of the vertices in this geometry, and its start and end points denote the crosswalk locations described in the specification. </t>
-  </si>
-  <si>
-    <t>This describes the type of crosswalk at the end of the segment from the following categories:[continental,transverse,ladder,textured,other]</t>
-  </si>
-  <si>
-    <t>This describes the type of crosswalk at the beginning of the segment from the following categories:[continental,transverse,ladder,textured,other]</t>
   </si>
   <si>
     <t>Level in JSON Hierarchy</t>
@@ -815,18 +797,12 @@
     <t>LSFW_Furn_M</t>
   </si>
   <si>
-    <t>This metatag descripts the type of furniture zone being placed based on the following categories: [street_trees_in_planted_buffer, street_trees_in_curb_cuts, planted_buffer, filter_buffer, transit_shelter, complex]</t>
-  </si>
-  <si>
     <t>Right_Sidewalk_Furniture_Meta</t>
   </si>
   <si>
     <t>RSFW_Furn_M</t>
   </si>
   <si>
-    <t xml:space="preserve">This metatag descripts the type of furniture zone being placed based on the following categories: [street_trees_in_planted_buffer, street_trees_in_curb_cuts, planted_buffer, filter_buffer, transit_shelter, complex]. </t>
-  </si>
-  <si>
     <t>Off_Street_Width</t>
   </si>
   <si>
@@ -842,7 +818,52 @@
     <t xml:space="preserve">Width in meters of an off-street path facility or gravel road that does not have clear delinations for direction that runs parallel to the segment or is the segment being described (all other attributes are zero). </t>
   </si>
   <si>
-    <t>This describes the type of off-street facility being represented. Can be taken from the following categories: [asphalt, gravel, dirt]</t>
+    <t>Possible Values</t>
+  </si>
+  <si>
+    <t>This describes the type of buffer that exists in the street based on the type. Categories include paint (paint only buffers), post (flexible posts in a painted buffer), curb (raised curb buffer), planter (temporary or permanent planter in buffer), separator (raised element placed intermittently along buffer).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This describes the parking parking zone type allowed. Categories include parking (personal vehicle storage), passenger_loading (passenger drop-off / loading) ,freight_loading (commercial vehicle drop-off / loading), parklet (mini-park or pedestrianized space) no-parking (no parking zone/fire lane/ etc.). It is not assumed that the entire curb is taken up by one of these uses, but just that it has atleast one of them. </t>
+  </si>
+  <si>
+    <t>parking;passenger_loading;freight_loading;parklet;no-parking</t>
+  </si>
+  <si>
+    <t>This describes transit lane type. The possible values include bus (bus only lane), hov (high occupancy vehicle lane), rail (light rail/street car lane), bus_bike (bus and bike shared lane).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This describes the type of right of way allocation typical to the center of a street. The options include a median (raised curb with no tapering for a turn lane), turn_lane (a two-way left turn lane), boulevard (a center lane allocation that tend to be large and contain pedestrian space of other lane allocations), barrier (a raised barrier such as a Jersey Barrier), median_turn_lane (a median with tapering at each intersection to accomodate left turn lanes). </t>
+  </si>
+  <si>
+    <t>This describes the type of off-street facility being represented. If the geometry represents an off-street path rather than a road or a road that has no formal delination, this tag along side Off_St_W can be used to represent a simplified rural road or path. The possible values are asphalt (impervious petroleum based path surface), gravel (loose aggregate material delinate path), dirt (compacted soil with little or no vegetation delinate path).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This describes the type of crosswalk at the end of the segment. The types of crosswalk that are possible are continental (high visibility bars spaced across intersection), transverse (standard two painted lines across intersection), ladder (combination of two painted lines and continental bars), textured (some type of custom colored &amp; textured pavement based crosswalk), other (other custom crosswalk design). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This describes the type of crosswalk at the beginning of the segment. The types of crosswalk that are possible are continental (high visibility bars spaced across intersection), transverse (standard two painted lines across intersection), ladder (combination of two painted lines and continental bars), textured (some type of custom colored &amp; textured pavement based crosswalk), other (other custom crosswalk design). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This metatag descripts the type of furniture zone being placed. The possible values include street_trees_in_planted_buffer (denotes spaced trees placed in a long vegetated buffer), street_trees_in_curb_cuts (denotes spaced trees in cuts in the cement), planted_buffer (denotes a grass or other semi-vegetated buffer along furniture zone), filter_buffer (placement of bioswale or dipped catchment area for rain water in furniture zone), transit_shelter (denotes that a transit shelter is in the furniture zone), complex (denotes multiple types of objects in furniture zone perhaps better described by smaller segments in the slice specification). </t>
+  </si>
+  <si>
+    <t>paint;post;curb;planter;separator</t>
+  </si>
+  <si>
+    <t>median;turn_lane;boulevard;barrier;median_turn_lane</t>
+  </si>
+  <si>
+    <t>continental;transverse;ladder;textured;other</t>
+  </si>
+  <si>
+    <t>street_trees_in_planted_buffer;street_trees_in_curb_cuts;planted_buffer;filter_buffer;transit_shelter;complex</t>
+  </si>
+  <si>
+    <t>asphalt;gravel;dirt</t>
+  </si>
+  <si>
+    <t>bus;hov;rail;bus_bike</t>
   </si>
 </sst>
 </file>
@@ -917,7 +938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -941,6 +962,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,10 +1249,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:C48"/>
+    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="F44" sqref="F6:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1236,20 +1260,21 @@
     <col min="1" max="2" width="32.7890625" customWidth="1"/>
     <col min="3" max="3" width="20.89453125" customWidth="1"/>
     <col min="4" max="4" width="18.26171875" customWidth="1"/>
-    <col min="5" max="5" width="77.15625" customWidth="1"/>
+    <col min="5" max="5" width="51.15625" customWidth="1"/>
+    <col min="6" max="6" width="35.9453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1265,8 +1290,11 @@
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1280,27 +1308,33 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>217</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1314,10 +1348,13 @@
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>229</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1333,54 +1370,76 @@
       <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>243</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>30</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
@@ -1389,15 +1448,18 @@
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
@@ -1406,15 +1468,18 @@
         <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>31</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
@@ -1423,49 +1488,58 @@
         <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>33</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>49</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>6</v>
@@ -1474,168 +1548,198 @@
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>65</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>240</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>230</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
@@ -1644,49 +1748,58 @@
         <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>242</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>231</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>6</v>
@@ -1695,15 +1808,18 @@
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>232</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
@@ -1712,15 +1828,18 @@
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>233</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>6</v>
@@ -1729,49 +1848,58 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>234</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>235</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>236</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>6</v>
@@ -1780,112 +1908,133 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>237</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F42" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -1899,27 +2048,33 @@
         <v>2</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>96</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>57</v>
       </c>
       <c r="B44" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>6</v>
+      <c r="C44" t="s">
+        <v>48</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>257</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -1933,59 +2088,87 @@
         <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>258</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>245</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" t="s">
-        <v>48</v>
+        <v>247</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>249</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B47" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" t="s">
-        <v>254</v>
-      </c>
-      <c r="B48" t="s">
         <v>256</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>258</v>
-      </c>
+      <c r="F47" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F59" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2016,7 +2199,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2050,66 +2233,66 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -2118,15 +2301,15 @@
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -2135,58 +2318,58 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2222,7 +2405,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2230,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -2247,80 +2430,80 @@
     </row>
     <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -2332,13 +2515,13 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -2350,60 +2533,60 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2419,7 +2602,7 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="B5" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2434,23 +2617,23 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -2464,334 +2647,334 @@
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="29.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F26" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2799,237 +2982,237 @@
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F37" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F38" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F39" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F40" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E41" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F41" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E42" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F42" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E43" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F43" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F44" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E45" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F45" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E48" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F48" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F49" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E50" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F50" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F51" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F52" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F53" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F54" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E55" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E56" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F56" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E57" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F57" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E58" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F58" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3065,10 +3248,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3079,13 +3262,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -3099,7 +3282,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3113,7 +3296,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3127,7 +3310,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3135,7 +3318,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -3155,7 +3338,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -3169,7 +3352,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -3183,7 +3366,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -3197,7 +3380,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -3211,7 +3394,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3225,7 +3408,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -3239,7 +3422,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -3267,7 +3450,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -3295,7 +3478,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -3323,7 +3506,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -3345,13 +3528,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -3359,13 +3542,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -3373,13 +3556,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -3387,10 +3570,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>48</v>
@@ -3401,13 +3584,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -3415,13 +3598,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -3429,13 +3612,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -3443,13 +3626,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -3457,13 +3640,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -3471,13 +3654,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -3485,13 +3668,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -3499,10 +3682,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>48</v>
@@ -3513,13 +3696,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -3527,10 +3710,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>48</v>
@@ -3541,13 +3724,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -3555,7 +3738,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
         <v>44</v>
@@ -3569,13 +3752,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -3583,13 +3766,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -3597,10 +3780,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
         <v>48</v>
@@ -3611,10 +3794,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
         <v>48</v>
@@ -3625,13 +3808,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B41" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -3639,10 +3822,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>48</v>

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735A9900-B3C2-4DC5-BA72-ABAFB52B4A8C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E362AC-C399-447F-BDE6-A3BAD4344AF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -957,14 +957,14 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1251,8 +1251,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="F44" sqref="F6:F47"/>
+    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1310,7 +1310,7 @@
       <c r="E6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       <c r="E7" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       <c r="E8" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       <c r="E11" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>263</v>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
       <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       <c r="E14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       <c r="E16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
       <c r="E17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
       <c r="E18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       <c r="E19" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>260</v>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       <c r="E20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       <c r="E21" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="8" t="s">
         <v>253</v>
       </c>
     </row>
@@ -1630,7 +1630,7 @@
       <c r="E22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="E23" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="8" t="s">
         <v>265</v>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       <c r="E24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
       <c r="E25" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="8" t="s">
         <v>261</v>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
       <c r="E26" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
       <c r="E27" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
       <c r="E28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
       <c r="E29" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="8" t="s">
         <v>263</v>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
       <c r="E30" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       <c r="E31" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       <c r="E32" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       <c r="E33" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       <c r="E34" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       <c r="E35" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       <c r="E36" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       <c r="E37" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="8" t="s">
         <v>263</v>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       <c r="E38" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1970,7 +1970,7 @@
       <c r="E39" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="8" t="s">
         <v>253</v>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       <c r="E40" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       <c r="E41" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="8" t="s">
         <v>265</v>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       <c r="E42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
       <c r="E43" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
       <c r="E44" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="8" t="s">
         <v>262</v>
       </c>
     </row>
@@ -2090,7 +2090,7 @@
       <c r="E45" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="8" t="s">
         <v>262</v>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       <c r="E46" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2130,45 +2130,45 @@
       <c r="E47" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="8" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F48" s="10"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F49" s="10"/>
+      <c r="F49" s="8"/>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F50" s="10"/>
+      <c r="F50" s="8"/>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F51" s="10"/>
+      <c r="F51" s="8"/>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F52" s="10"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F53" s="10"/>
+      <c r="F53" s="8"/>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F54" s="10"/>
+      <c r="F54" s="8"/>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F55" s="10"/>
+      <c r="F55" s="8"/>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F56" s="10"/>
+      <c r="F56" s="8"/>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F57" s="10"/>
+      <c r="F57" s="8"/>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F58" s="10"/>
+      <c r="F58" s="8"/>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F59" s="10"/>
+      <c r="F59" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2754,10 +2754,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="29.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2816,10 +2816,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E362AC-C399-447F-BDE6-A3BAD4344AF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0624A35-E336-47A3-81C5-F4B0C0458E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
@@ -473,9 +473,6 @@
     <t>A string value indicating the paving material of the surface, e.g. "asphalt", "concrete", "cobblestone", "dirt", etc. (There should be some attempt at standardizing common values but allow custom values to be used.) This should not be a required value because specific slices can assume default values, e.g. the default value of paving for a drive_lane, if not specified, is "asphalt". Allow "none" if slice is not paved; e.g. plants, water</t>
   </si>
   <si>
-    <t>A relative number for the height of the surface. Rather than deal with specific measurements (which can vary depending on elevation and other factors) we (that is, Streetmix) uses 0 to indicate a road surface and 1 for a raised sidewalk surface. If there is no height difference between the drive_lane and sidewalk areas, the values will both be 0. A surface at half-curb-height is 0.5. Ditches are given negative values. Raised platforms can be given any number above 1 that represents a relative scale factor compared to the difference in height between the sidewalk curb and road surface (e.g. 2, 2.5, 3, etc)</t>
-  </si>
-  <si>
     <t>bike_lane</t>
   </si>
   <si>
@@ -864,6 +861,9 @@
   </si>
   <si>
     <t>bus;hov;rail;bus_bike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The height of the surface in centimeters relative to the road surface. While the geometry can encode Z coordinates for abolute elevation, this attribute specifically for knowning the vertical height of surfaces relative to the street. A typical curb can be 4 to 6 inches in height (10.2 - 15.2 cm), while just the asphalt road bed would be considered be at height 0. </t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1251,7 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1291,7 +1291,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -1328,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>9</v>
@@ -1348,7 +1348,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>9</v>
@@ -1396,10 +1396,10 @@
     </row>
     <row r="11" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
@@ -1408,10 +1408,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1568,10 +1568,10 @@
         <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1608,10 +1608,10 @@
         <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1648,10 +1648,10 @@
         <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1688,10 +1688,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1708,7 +1708,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>9</v>
@@ -1728,7 +1728,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>9</v>
@@ -1756,10 +1756,10 @@
     </row>
     <row r="29" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>48</v>
@@ -1768,10 +1768,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1788,7 +1788,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>9</v>
@@ -1808,7 +1808,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>9</v>
@@ -1828,7 +1828,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>9</v>
@@ -1848,7 +1848,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>9</v>
@@ -1868,7 +1868,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>9</v>
@@ -1888,7 +1888,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>9</v>
@@ -1908,7 +1908,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>9</v>
@@ -1928,10 +1928,10 @@
         <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1948,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>9</v>
@@ -1968,10 +1968,10 @@
         <v>15</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1988,7 +1988,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>9</v>
@@ -2008,10 +2008,10 @@
         <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2068,10 +2068,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
@@ -2088,18 +2088,18 @@
         <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>6</v>
@@ -2108,7 +2108,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>9</v>
@@ -2116,10 +2116,10 @@
     </row>
     <row r="47" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>48</v>
@@ -2128,10 +2128,10 @@
         <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2184,8 +2184,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2199,7 +2199,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2250,24 +2250,24 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" t="s">
         <v>220</v>
       </c>
-      <c r="B6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
@@ -2340,10 +2340,10 @@
     </row>
     <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>112</v>
@@ -2369,7 +2369,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2461,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
@@ -2557,7 +2557,7 @@
     <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -2602,8 +2602,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2633,7 +2633,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -2660,7 +2660,7 @@
     <row r="7" spans="1:6" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -2689,7 +2689,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>110</v>
@@ -2702,13 +2702,13 @@
         <v>130</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>135</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
@@ -2718,14 +2718,14 @@
         <v>130</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>106</v>
@@ -2734,14 +2734,14 @@
         <v>130</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>106</v>
@@ -2750,19 +2750,19 @@
         <v>130</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="29.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2784,7 +2784,7 @@
         <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -2795,10 +2795,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2806,105 +2806,105 @@
         <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" t="s">
         <v>165</v>
-      </c>
-      <c r="D20" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" t="s">
         <v>142</v>
-      </c>
-      <c r="D23" t="s">
-        <v>143</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2918,63 +2918,63 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2982,139 +2982,139 @@
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E37" t="s">
         <v>130</v>
       </c>
       <c r="F37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E38" t="s">
         <v>130</v>
       </c>
       <c r="F38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E39" t="s">
         <v>130</v>
       </c>
       <c r="F39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E40" t="s">
         <v>130</v>
       </c>
       <c r="F40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E41" t="s">
         <v>130</v>
       </c>
       <c r="F41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E42" t="s">
         <v>130</v>
       </c>
       <c r="F42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E43" t="s">
         <v>130</v>
       </c>
       <c r="F43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E44" t="s">
         <v>130</v>
       </c>
       <c r="F44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E45" t="s">
         <v>130</v>
       </c>
       <c r="F45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E48" t="s">
         <v>125</v>
       </c>
       <c r="F48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3122,18 +3122,18 @@
         <v>108</v>
       </c>
       <c r="F49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E50" t="s">
         <v>130</v>
       </c>
       <c r="F50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3141,18 +3141,18 @@
         <v>108</v>
       </c>
       <c r="F51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E52" t="s">
         <v>130</v>
       </c>
       <c r="F52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3160,59 +3160,59 @@
         <v>108</v>
       </c>
       <c r="F53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" t="s">
+        <v>184</v>
+      </c>
+      <c r="F54" t="s">
         <v>185</v>
-      </c>
-      <c r="F54" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E55" t="s">
         <v>130</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E56" t="s">
         <v>130</v>
       </c>
       <c r="F56" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E57" t="s">
         <v>130</v>
       </c>
       <c r="F57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E58" t="s">
         <v>130</v>
       </c>
       <c r="F58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3248,10 +3248,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" t="s">
         <v>226</v>
-      </c>
-      <c r="B1" t="s">
-        <v>227</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3282,7 +3282,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3296,7 +3296,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -3338,7 +3338,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3408,7 +3408,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -3422,7 +3422,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -3450,7 +3450,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -3548,7 +3548,7 @@
         <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>84</v>
@@ -3590,7 +3590,7 @@
         <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -3660,7 +3660,7 @@
         <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -3674,7 +3674,7 @@
         <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -3772,7 +3772,7 @@
         <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -3808,13 +3808,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>48</v>

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0624A35-E336-47A3-81C5-F4B0C0458E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADEBC4F-1E8C-411C-B43B-F2C5663A8F4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="267">
   <si>
     <t>Field name</t>
   </si>
@@ -378,9 +378,6 @@
   </si>
   <si>
     <t xml:space="preserve">Denotes the width in meters of the slice. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denotes the height in meters of the slice relative to the rest of the road. </t>
   </si>
   <si>
     <t xml:space="preserve">Denotes whether the slice is facing forward (towards the geometry end point) or reverse (towards the geometry start point). </t>
@@ -864,6 +861,12 @@
   </si>
   <si>
     <t xml:space="preserve">The height of the surface in centimeters relative to the road surface. While the geometry can encode Z coordinates for abolute elevation, this attribute specifically for knowning the vertical height of surfaces relative to the street. A typical curb can be 4 to 6 inches in height (10.2 - 15.2 cm), while just the asphalt road bed would be considered be at height 0. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denotes the height in centimeters (cm) of the slice relative to the rest of the road. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denotes the height in centimeters (cm) of the slice relative to the rest of the roadbed. </t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1274,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1291,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -1328,7 +1331,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>9</v>
@@ -1348,7 +1351,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>9</v>
@@ -1396,10 +1399,10 @@
     </row>
     <row r="11" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
@@ -1408,10 +1411,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1568,10 +1571,10 @@
         <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1608,10 +1611,10 @@
         <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1648,10 +1651,10 @@
         <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1688,10 +1691,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1708,7 +1711,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>9</v>
@@ -1728,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>9</v>
@@ -1756,10 +1759,10 @@
     </row>
     <row r="29" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>48</v>
@@ -1768,10 +1771,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1788,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>9</v>
@@ -1808,7 +1811,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>9</v>
@@ -1828,7 +1831,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>9</v>
@@ -1848,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>9</v>
@@ -1868,7 +1871,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>9</v>
@@ -1888,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>9</v>
@@ -1908,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>9</v>
@@ -1928,10 +1931,10 @@
         <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1948,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>9</v>
@@ -1968,10 +1971,10 @@
         <v>15</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1988,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>9</v>
@@ -2008,10 +2011,10 @@
         <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2068,10 +2071,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
@@ -2088,18 +2091,18 @@
         <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>6</v>
@@ -2108,7 +2111,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>9</v>
@@ -2116,10 +2119,10 @@
     </row>
     <row r="47" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>48</v>
@@ -2128,10 +2131,10 @@
         <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2184,8 +2187,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2199,7 +2202,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2250,24 +2253,24 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" t="s">
         <v>219</v>
       </c>
-      <c r="B6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
@@ -2284,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2318,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>116</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2335,15 +2338,15 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>112</v>
@@ -2352,7 +2355,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2369,7 +2372,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2384,8 +2387,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2405,7 +2408,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2461,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
@@ -2497,7 +2500,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2533,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>116</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2551,13 +2554,13 @@
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -2569,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2586,7 +2589,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2602,7 +2605,7 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2617,23 +2620,23 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -2647,46 +2650,46 @@
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2696,215 +2699,215 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="29.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
         <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" t="s">
         <v>164</v>
-      </c>
-      <c r="D20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" t="s">
         <v>141</v>
-      </c>
-      <c r="D23" t="s">
-        <v>142</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2918,63 +2921,63 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2982,139 +2985,139 @@
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" t="s">
         <v>180</v>
-      </c>
-      <c r="E41" t="s">
-        <v>130</v>
-      </c>
-      <c r="F41" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" t="s">
         <v>187</v>
-      </c>
-      <c r="E42" t="s">
-        <v>130</v>
-      </c>
-      <c r="F42" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3122,18 +3125,18 @@
         <v>108</v>
       </c>
       <c r="F49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3141,18 +3144,18 @@
         <v>108</v>
       </c>
       <c r="F51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3160,59 +3163,59 @@
         <v>108</v>
       </c>
       <c r="F53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" t="s">
+        <v>183</v>
+      </c>
+      <c r="F54" t="s">
         <v>184</v>
-      </c>
-      <c r="F54" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
+        <v>188</v>
+      </c>
+      <c r="E55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="E55" t="s">
-        <v>130</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
+        <v>197</v>
+      </c>
+      <c r="E57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" t="s">
         <v>198</v>
-      </c>
-      <c r="E57" t="s">
-        <v>130</v>
-      </c>
-      <c r="F57" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E58" t="s">
+        <v>129</v>
+      </c>
+      <c r="F58" t="s">
         <v>195</v>
-      </c>
-      <c r="E58" t="s">
-        <v>130</v>
-      </c>
-      <c r="F58" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3248,10 +3251,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" t="s">
         <v>225</v>
-      </c>
-      <c r="B1" t="s">
-        <v>226</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3282,7 +3285,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3296,7 +3299,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3310,7 +3313,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3318,7 +3321,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -3338,7 +3341,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -3352,7 +3355,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -3366,7 +3369,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -3380,7 +3383,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -3394,7 +3397,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3408,7 +3411,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -3422,7 +3425,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -3450,7 +3453,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -3478,7 +3481,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -3506,7 +3509,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -3534,7 +3537,7 @@
         <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -3548,7 +3551,7 @@
         <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -3562,7 +3565,7 @@
         <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -3570,7 +3573,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>84</v>
@@ -3590,7 +3593,7 @@
         <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -3604,7 +3607,7 @@
         <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -3618,7 +3621,7 @@
         <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -3632,7 +3635,7 @@
         <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -3646,7 +3649,7 @@
         <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -3660,7 +3663,7 @@
         <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -3674,7 +3677,7 @@
         <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -3702,7 +3705,7 @@
         <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -3730,7 +3733,7 @@
         <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -3758,7 +3761,7 @@
         <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -3772,7 +3775,7 @@
         <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -3808,13 +3811,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -3822,10 +3825,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>48</v>

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADEBC4F-1E8C-411C-B43B-F2C5663A8F4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B50F66-F309-40F2-BCE6-1A577F7CD327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
@@ -692,9 +692,6 @@
     <t xml:space="preserve">The type of buffer allowed. Possible values include: cement, vegetated, vegetated with trees, stone, brick, other. </t>
   </si>
   <si>
-    <t>Definition in flux, but these transition properties describe how the edge of one slice should transition to a neighboring slice based on some criteria. E.g. a drive_lane next to another_drive lane might have a transition of a broken white line. A raised curb next to an asphant-paved slice might have a gutter, or a ramp, or other types of transitions.</t>
-  </si>
-  <si>
     <t>Sub-Meta Tags</t>
   </si>
   <si>
@@ -860,13 +857,16 @@
     <t>bus;hov;rail;bus_bike</t>
   </si>
   <si>
-    <t xml:space="preserve">The height of the surface in centimeters relative to the road surface. While the geometry can encode Z coordinates for abolute elevation, this attribute specifically for knowning the vertical height of surfaces relative to the street. A typical curb can be 4 to 6 inches in height (10.2 - 15.2 cm), while just the asphalt road bed would be considered be at height 0. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Denotes the height in centimeters (cm) of the slice relative to the rest of the road. </t>
   </si>
   <si>
     <t xml:space="preserve">Denotes the height in centimeters (cm) of the slice relative to the rest of the roadbed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The height of the surface in centimeters relative to the road surface. While the geometry can encode Z coordinates for absolute elevation, this attribute specifically for knowing the vertical height of surfaces relative to the street. A typical curb can be 4 to 6 inches in height (10.2 - 15.2 cm), while just the asphalt road bed would be considered be at height 0. </t>
+  </si>
+  <si>
+    <t>Definition in flux, but these transition properties describe how the edge of one slice should transition to a neighboring slice based on some criteria. E.g. a drive_lane next to another_drive lane might have a transition of a broken white line. A raised curb next to an asphalt-paved slice might have a gutter, or a ramp, or other types of transitions.</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1294,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -1331,7 +1331,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>9</v>
@@ -1351,7 +1351,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>9</v>
@@ -1399,10 +1399,10 @@
     </row>
     <row r="11" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
@@ -1411,10 +1411,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1571,10 +1571,10 @@
         <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1611,10 +1611,10 @@
         <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1651,10 +1651,10 @@
         <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1691,10 +1691,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1711,7 +1711,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>9</v>
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>9</v>
@@ -1759,10 +1759,10 @@
     </row>
     <row r="29" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>48</v>
@@ -1771,10 +1771,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>9</v>
@@ -1811,7 +1811,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>9</v>
@@ -1831,7 +1831,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>9</v>
@@ -1851,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>9</v>
@@ -1871,7 +1871,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>9</v>
@@ -1891,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>9</v>
@@ -1911,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>9</v>
@@ -1931,10 +1931,10 @@
         <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1951,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>9</v>
@@ -1971,10 +1971,10 @@
         <v>15</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1991,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>9</v>
@@ -2011,10 +2011,10 @@
         <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2071,10 +2071,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
@@ -2091,18 +2091,18 @@
         <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>6</v>
@@ -2111,7 +2111,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>9</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="47" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>48</v>
@@ -2131,10 +2131,10 @@
         <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2202,7 +2202,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2253,24 +2253,24 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
         <v>218</v>
       </c>
-      <c r="B6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
@@ -2321,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2343,10 +2343,10 @@
     </row>
     <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>112</v>
@@ -2372,7 +2372,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2387,7 +2387,7 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2464,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
@@ -2536,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2560,7 +2560,7 @@
     <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -2605,8 +2605,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2636,7 +2636,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -2663,7 +2663,7 @@
     <row r="7" spans="1:6" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -2705,7 +2705,7 @@
         <v>129</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2721,14 +2721,14 @@
         <v>129</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>106</v>
@@ -2737,14 +2737,14 @@
         <v>129</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>106</v>
@@ -2753,7 +2753,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="29.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3251,10 +3251,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" t="s">
         <v>224</v>
-      </c>
-      <c r="B1" t="s">
-        <v>225</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3299,7 +3299,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -3341,7 +3341,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -3369,7 +3369,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3411,7 +3411,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -3453,7 +3453,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -3551,7 +3551,7 @@
         <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>84</v>
@@ -3593,7 +3593,7 @@
         <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -3621,7 +3621,7 @@
         <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -3649,7 +3649,7 @@
         <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -3663,7 +3663,7 @@
         <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -3677,7 +3677,7 @@
         <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -3733,7 +3733,7 @@
         <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -3775,7 +3775,7 @@
         <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -3811,13 +3811,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -3825,10 +3825,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>48</v>

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B50F66-F309-40F2-BCE6-1A577F7CD327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9BDCC5-FD14-4FCD-8B31-CDDC0A667331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="268">
   <si>
     <t>Field name</t>
   </si>
@@ -867,6 +867,9 @@
   </si>
   <si>
     <t>Definition in flux, but these transition properties describe how the edge of one slice should transition to a neighboring slice based on some criteria. E.g. a drive_lane next to another_drive lane might have a transition of a broken white line. A raised curb next to an asphalt-paved slice might have a gutter, or a ramp, or other types of transitions.</t>
+  </si>
+  <si>
+    <t>rowindex</t>
   </si>
 </sst>
 </file>
@@ -2187,8 +2190,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2258,7 +2261,7 @@
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="B6" t="s">
         <v>217</v>
@@ -2605,7 +2608,7 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9BDCC5-FD14-4FCD-8B31-CDDC0A667331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48149FF-FDAC-4D17-980E-8CB19064A5E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="270">
   <si>
     <t>Field name</t>
   </si>
@@ -734,9 +734,6 @@
     <t xml:space="preserve">Description: A share-row-crosswalk consists of each row representing a slice of a shared-street id. Intended to allow the conversion between Additive and Sliced based specifications in an editable GIS/SQL database. </t>
   </si>
   <si>
-    <t xml:space="preserve">Description: Consists of a line geometry file that is a flat table consisting of standardized right of way description fields. Each shared-row-id considered unique, and represents a single consolidated centerline for a street (no dual carriageways). Provides a GIS/SQL compatible database schema. </t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -870,6 +867,15 @@
   </si>
   <si>
     <t>rowindex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This metatag descripts the type of furniture zone being placed. The possible values include street_trees_in_planted_buffer (denotes spaced trees placed in a long vegetated buffer), street_trees_in_curb_cuts (denotes spaced trees in cuts in the cement), planted_buffer (denotes a grass or other semi-vegetated buffer along furniture zone), filter_strip (placement of bioswale or dipped catchment area for rain water in furniture zone), transit_shelter (denotes that a transit shelter is in the furniture zone), complex (denotes multiple types of objects in furniture zone perhaps better described by smaller segments in the slice specification). </t>
+  </si>
+  <si>
+    <t>street_trees_in_planted_buffer;street_trees_in_curb_cuts;planted_buffer;filter_strip;transit_shelter;complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: Consists of a line geometry file that is a flat table consisting of standardized right of way description fields. Each shared-row-id considered unique, and represents a single consolidated centerline for a street (no dual carriageways). Right oriented fields denote lanes enabling traffic in the forward direction towards the end point of the line, and left oriented fields denote lanes enabling traffic in the reverse direciton toward the start point of the line.  Provides a GIS/SQL compatible database schema. </t>
   </si>
 </sst>
 </file>
@@ -944,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -971,6 +977,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1257,8 +1266,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1275,10 +1284,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>222</v>
-      </c>
+    <row r="3" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
@@ -1297,7 +1311,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -1354,7 +1368,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>9</v>
@@ -1402,10 +1416,10 @@
     </row>
     <row r="11" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
@@ -1414,10 +1428,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1574,10 +1588,10 @@
         <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1614,10 +1628,10 @@
         <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1654,10 +1668,10 @@
         <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1694,10 +1708,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1714,7 +1728,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>9</v>
@@ -1734,7 +1748,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>9</v>
@@ -1762,10 +1776,10 @@
     </row>
     <row r="29" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>48</v>
@@ -1774,10 +1788,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1794,7 +1808,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>9</v>
@@ -1814,7 +1828,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>9</v>
@@ -1834,7 +1848,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>9</v>
@@ -1854,7 +1868,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>9</v>
@@ -1874,7 +1888,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>9</v>
@@ -1894,7 +1908,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>9</v>
@@ -1914,7 +1928,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>9</v>
@@ -1934,10 +1948,10 @@
         <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1954,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>9</v>
@@ -1974,10 +1988,10 @@
         <v>15</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1994,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>9</v>
@@ -2014,10 +2028,10 @@
         <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2074,10 +2088,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
@@ -2094,18 +2108,18 @@
         <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>6</v>
@@ -2114,7 +2128,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>9</v>
@@ -2122,10 +2136,10 @@
     </row>
     <row r="47" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>48</v>
@@ -2134,10 +2148,10 @@
         <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2177,6 +2191,9 @@
       <c r="F59" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2190,7 +2207,7 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2261,7 +2278,7 @@
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B6" t="s">
         <v>217</v>
@@ -2324,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2390,7 +2407,7 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2539,7 +2556,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2608,7 +2625,7 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
@@ -2708,7 +2725,7 @@
         <v>129</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2724,7 +2741,7 @@
         <v>129</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -3254,10 +3271,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" t="s">
         <v>223</v>
-      </c>
-      <c r="B1" t="s">
-        <v>224</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3288,7 +3305,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3302,7 +3319,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3316,7 +3333,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3324,7 +3341,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -3344,7 +3361,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -3358,7 +3375,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -3372,7 +3389,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -3386,7 +3403,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -3400,7 +3417,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3414,7 +3431,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -3428,7 +3445,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -3456,7 +3473,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -3484,7 +3501,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -3512,7 +3529,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -3540,7 +3557,7 @@
         <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -3554,7 +3571,7 @@
         <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -3568,7 +3585,7 @@
         <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -3576,7 +3593,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>84</v>
@@ -3596,7 +3613,7 @@
         <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -3610,7 +3627,7 @@
         <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -3624,7 +3641,7 @@
         <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -3638,7 +3655,7 @@
         <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -3652,7 +3669,7 @@
         <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -3666,7 +3683,7 @@
         <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -3680,7 +3697,7 @@
         <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -3708,7 +3725,7 @@
         <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -3736,7 +3753,7 @@
         <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -3764,7 +3781,7 @@
         <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -3778,7 +3795,7 @@
         <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -3814,13 +3831,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -3828,10 +3845,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>48</v>

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48149FF-FDAC-4D17-980E-8CB19064A5E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA90EAB2-BFBB-4DC9-9BD4-9821632F720E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="271">
   <si>
     <t>Field name</t>
   </si>
@@ -876,6 +876,9 @@
   </si>
   <si>
     <t xml:space="preserve">Description: Consists of a line geometry file that is a flat table consisting of standardized right of way description fields. Each shared-row-id considered unique, and represents a single consolidated centerline for a street (no dual carriageways). Right oriented fields denote lanes enabling traffic in the forward direction towards the end point of the line, and left oriented fields denote lanes enabling traffic in the reverse direciton toward the start point of the line.  Provides a GIS/SQL compatible database schema. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denotes whether the slice is facing forward (towards the geometry end point) or reverse (towards the geometry start point). Possible values are forward, reverse, and bidirectional. </t>
   </si>
 </sst>
 </file>
@@ -979,7 +982,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1266,7 +1269,7 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
@@ -2207,8 +2210,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2358,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>116</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
@@ -2407,8 +2410,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA90EAB2-BFBB-4DC9-9BD4-9821632F720E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40DC3D7-097D-4368-97A5-1EE08B1BF7BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="271">
   <si>
     <t>Field name</t>
   </si>
@@ -461,9 +461,6 @@
     <t>Meta tags permitted on all slices</t>
   </si>
   <si>
-    <t>A string value indicating painted color for the slice (e.g. "red" is common for bus lanes, "green" or "blue" for bike lanes). Allow some other descriptive words for special patterns or artwork</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
@@ -551,9 +548,6 @@
     <t>Through-lane dedicated to bicycles or other vehicles of similar shape and speed.</t>
   </si>
   <si>
-    <t>Through-lane dedicated to pedestrians, usually (but not always) on a raised curb</t>
-  </si>
-  <si>
     <t>"Dedicated" means "primarily intended for." In each of these cases mixed traffic may be permitted and a meta tag will indicate what kind of mixing is allowed.</t>
   </si>
   <si>
@@ -569,9 +563,6 @@
     <t>A through-lane with fixed infrastructure (e.g. rail-based transit)</t>
   </si>
   <si>
-    <t>A string value indicating the type of rail transit (trolley, light rail, heavy rail)</t>
-  </si>
-  <si>
     <t>Whether the transit lane permits automobiles.</t>
   </si>
   <si>
@@ -581,9 +572,6 @@
     <t>bus_allowed</t>
   </si>
   <si>
-    <t>Whether the transit lane permits non-fixed-rail transit, e.g. buses</t>
-  </si>
-  <si>
     <t>see above</t>
   </si>
   <si>
@@ -608,30 +596,12 @@
     <t>passenger_loading</t>
   </si>
   <si>
-    <t>A loading zone, primarily for passenger pickup/dropoff.</t>
-  </si>
-  <si>
-    <t>A loading zone, primarily for the loading and unloading of goods</t>
-  </si>
-  <si>
-    <t>Any slice that has been reconfigured for a temporary purpose, e.g construction</t>
-  </si>
-  <si>
     <t>barrier_type</t>
   </si>
   <si>
-    <t>If the slice is a barrier, type of barrier (e.g. traffic cone, jersey barrier, fencing, etc)</t>
-  </si>
-  <si>
-    <t>What is this temporary purpose (e.g. construction, event)</t>
-  </si>
-  <si>
     <t>commercial</t>
   </si>
   <si>
-    <t>A zone where commerce is permitted, e.g. food trucks, farmer's markets, newstands</t>
-  </si>
-  <si>
     <t>transit_shelter</t>
   </si>
   <si>
@@ -656,18 +626,9 @@
     <t>A water channel</t>
   </si>
   <si>
-    <t>An area for plants, primarily for decorative purposes (though it can have an ecological impact). Usually placed in a sidewalk (as opposed to a median) This differentiates this from:</t>
-  </si>
-  <si>
     <t>filter_strip</t>
   </si>
   <si>
-    <t>An area designated for stormwater management, which is usually (but not required to be) vegetated.</t>
-  </si>
-  <si>
-    <t>Curb zones are the liminal space between through traffic and a pedestrian zone which have usually been reserved for automobile parking, but more recently, segments of the curb zone have been chopped up and designated for other uses. Therefore curb zones may be portions of slices from point A to B. Note that there is a very fine line between some types of uses in a curb zone and miscellaneous objects.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A zone where some designated of bicycle parking will be placed. </t>
   </si>
   <si>
@@ -680,18 +641,12 @@
     <t xml:space="preserve">A zone where dockless bicycle shared or scooters can be parked. </t>
   </si>
   <si>
-    <t xml:space="preserve">The type of median allowed. Possible values include: cement, vegetated, vegetated with trees, stone, brick, other. </t>
-  </si>
-  <si>
     <t xml:space="preserve">A raised street slice whose elements  are in the center of the street. </t>
   </si>
   <si>
     <t xml:space="preserve">A raised street slice whose elements typically provide some degree of protection to a multimodal lane such as a bike lane. </t>
   </si>
   <si>
-    <t xml:space="preserve">The type of buffer allowed. Possible values include: cement, vegetated, vegetated with trees, stone, brick, other. </t>
-  </si>
-  <si>
     <t>Sub-Meta Tags</t>
   </si>
   <si>
@@ -701,12 +656,6 @@
     <t>start</t>
   </si>
   <si>
-    <t xml:space="preserve">This denotes how end point transitions are defined in the specification. They are in the form: {index_position_of_connecting_street_slice: transition_type}. The index position indicates where the connecting slice is on the other street, and the transition type can have the values of : angled, s-shaped, offset, and semi-circle. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This denotes how start point transitions are defined in the specification. They are in the form: {index_position_of_connecting_street_slice: transition_type}. The index position indicates where the connecting slice is on the other street, and the transition type can have the values of : angled, s-shaped, offset, and semi-circle. </t>
-  </si>
-  <si>
     <t>material</t>
   </si>
   <si>
@@ -824,33 +773,9 @@
     <t xml:space="preserve">This describes the type of right of way allocation typical to the center of a street. The options include a median (raised curb with no tapering for a turn lane), turn_lane (a two-way left turn lane), boulevard (a center lane allocation that tend to be large and contain pedestrian space of other lane allocations), barrier (a raised barrier such as a Jersey Barrier), median_turn_lane (a median with tapering at each intersection to accomodate left turn lanes). </t>
   </si>
   <si>
-    <t>This describes the type of off-street facility being represented. If the geometry represents an off-street path rather than a road or a road that has no formal delination, this tag along side Off_St_W can be used to represent a simplified rural road or path. The possible values are asphalt (impervious petroleum based path surface), gravel (loose aggregate material delinate path), dirt (compacted soil with little or no vegetation delinate path).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This describes the type of crosswalk at the end of the segment. The types of crosswalk that are possible are continental (high visibility bars spaced across intersection), transverse (standard two painted lines across intersection), ladder (combination of two painted lines and continental bars), textured (some type of custom colored &amp; textured pavement based crosswalk), other (other custom crosswalk design). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This describes the type of crosswalk at the beginning of the segment. The types of crosswalk that are possible are continental (high visibility bars spaced across intersection), transverse (standard two painted lines across intersection), ladder (combination of two painted lines and continental bars), textured (some type of custom colored &amp; textured pavement based crosswalk), other (other custom crosswalk design). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This metatag descripts the type of furniture zone being placed. The possible values include street_trees_in_planted_buffer (denotes spaced trees placed in a long vegetated buffer), street_trees_in_curb_cuts (denotes spaced trees in cuts in the cement), planted_buffer (denotes a grass or other semi-vegetated buffer along furniture zone), filter_buffer (placement of bioswale or dipped catchment area for rain water in furniture zone), transit_shelter (denotes that a transit shelter is in the furniture zone), complex (denotes multiple types of objects in furniture zone perhaps better described by smaller segments in the slice specification). </t>
-  </si>
-  <si>
-    <t>paint;post;curb;planter;separator</t>
-  </si>
-  <si>
     <t>median;turn_lane;boulevard;barrier;median_turn_lane</t>
   </si>
   <si>
-    <t>continental;transverse;ladder;textured;other</t>
-  </si>
-  <si>
-    <t>street_trees_in_planted_buffer;street_trees_in_curb_cuts;planted_buffer;filter_buffer;transit_shelter;complex</t>
-  </si>
-  <si>
-    <t>asphalt;gravel;dirt</t>
-  </si>
-  <si>
     <t>bus;hov;rail;bus_bike</t>
   </si>
   <si>
@@ -860,25 +785,100 @@
     <t xml:space="preserve">Denotes the height in centimeters (cm) of the slice relative to the rest of the roadbed. </t>
   </si>
   <si>
-    <t xml:space="preserve">The height of the surface in centimeters relative to the road surface. While the geometry can encode Z coordinates for absolute elevation, this attribute specifically for knowing the vertical height of surfaces relative to the street. A typical curb can be 4 to 6 inches in height (10.2 - 15.2 cm), while just the asphalt road bed would be considered be at height 0. </t>
-  </si>
-  <si>
-    <t>Definition in flux, but these transition properties describe how the edge of one slice should transition to a neighboring slice based on some criteria. E.g. a drive_lane next to another_drive lane might have a transition of a broken white line. A raised curb next to an asphalt-paved slice might have a gutter, or a ramp, or other types of transitions.</t>
-  </si>
-  <si>
     <t>rowindex</t>
   </si>
   <si>
     <t xml:space="preserve">This metatag descripts the type of furniture zone being placed. The possible values include street_trees_in_planted_buffer (denotes spaced trees placed in a long vegetated buffer), street_trees_in_curb_cuts (denotes spaced trees in cuts in the cement), planted_buffer (denotes a grass or other semi-vegetated buffer along furniture zone), filter_strip (placement of bioswale or dipped catchment area for rain water in furniture zone), transit_shelter (denotes that a transit shelter is in the furniture zone), complex (denotes multiple types of objects in furniture zone perhaps better described by smaller segments in the slice specification). </t>
   </si>
   <si>
-    <t>street_trees_in_planted_buffer;street_trees_in_curb_cuts;planted_buffer;filter_strip;transit_shelter;complex</t>
-  </si>
-  <si>
     <t xml:space="preserve">Description: Consists of a line geometry file that is a flat table consisting of standardized right of way description fields. Each shared-row-id considered unique, and represents a single consolidated centerline for a street (no dual carriageways). Right oriented fields denote lanes enabling traffic in the forward direction towards the end point of the line, and left oriented fields denote lanes enabling traffic in the reverse direciton toward the start point of the line.  Provides a GIS/SQL compatible database schema. </t>
   </si>
   <si>
     <t xml:space="preserve">Denotes whether the slice is facing forward (towards the geometry end point) or reverse (towards the geometry start point). Possible values are forward, reverse, and bidirectional. </t>
+  </si>
+  <si>
+    <t>This describes the type of buffer that exists in the street based on the type. Categories include paint (paint only buffers), post (flexible posts in a painted buffer), curb (raised cement curb buffer), planter (temporary or permanent planter in buffer), separator (raised element placed intermittently along buffer).</t>
+  </si>
+  <si>
+    <t>asphalt;gravel;dirt;stone;brick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This describes the type of off-street facility being represented. If the geometry represents an off-street path rather than a road or a road that has no formal delination, this tag along side Off_St_W can be used to represent a simplified rural road or path. The possible values are asphalt (impervious petroleum based path surface), gravel (loose aggregate material delinate path), dirt (compacted soil with little or no vegetation delinate path), stone (large cobblestone or other type of surface), brick (clay brick trail surface). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This describes the type of crosswalk at the beginning of the segment. The types of crosswalk that are possible are continental (high visibility bars spaced across intersection), transverse (standard two painted lines across intersection), ladder (combination of two painted lines and continental bars), textured (some type of custom colored &amp; textured pavement based crosswalk),zebra (combinatin of two painted lines and angled diagonal crossbars), other (other custom crosswalk design). </t>
+  </si>
+  <si>
+    <t>continental;transverse;ladder;textured;zebra;other</t>
+  </si>
+  <si>
+    <t>A string value indicating the paving material of the surface; e.g. "asphalt"; "concrete"; "cobblestone"; "dirt"; etc. (There should be some attempt at standardizing common values but allow custom values to be used.) This should not be a required value because specific slices can assume default values; e.g. the default value of paving for a drive_lane; if not specified; is "asphalt". Allow "none" if slice is not paved; e.g. plants; water</t>
+  </si>
+  <si>
+    <t>A string value indicating painted color for the slice (e.g. "red" is common for bus lanes; "green" or "blue" for bike lanes). Allow some other descriptive words for special patterns or artwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The height of the surface in centimeters relative to the road surface. While the geometry can encode Z coordinates for absolute elevation; this attribute specifically for knowing the vertical height of surfaces relative to the street. A typical curb can be 4 to 6 inches in height (10.2 - 15.2 cm); while just the asphalt road bed would be considered be at height 0. </t>
+  </si>
+  <si>
+    <t>Definition in flux; but these transition properties describe how the edge of one slice should transition to a neighboring slice based on some criteria. E.g. a drive_lane next to another_drive lane might have a transition of a broken white line. A raised curb next to an asphalt-paved slice might have a gutter; or a ramp; or other types of transitions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This denotes how end point transitions are defined in the specification. They are in the form: {index_position_of_connecting_street_slice: transition_type}. The index position indicates where the connecting slice is on the other street; and the transition type can have the values of : angled; s-shaped; offset; and semi-circle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This denotes how start point transitions are defined in the specification. They are in the form: {index_position_of_connecting_street_slice: transition_type}. The index position indicates where the connecting slice is on the other street; and the transition type can have the values of : angled; s-shaped; offset; and semi-circle. </t>
+  </si>
+  <si>
+    <t>Through-lane dedicated to pedestrians; usually (but not always) on a raised curb</t>
+  </si>
+  <si>
+    <t>A string value indicating the type of rail transit (trolley; light rail; heavy rail)</t>
+  </si>
+  <si>
+    <t>Whether the transit lane permits non-fixed-rail transit; e.g. buses</t>
+  </si>
+  <si>
+    <t>Curb zones are the liminal space between through traffic and a pedestrian zone which have usually been reserved for automobile parking; but more recently; segments of the curb zone have been chopped up and designated for other uses. Therefore curb zones may be portions of slices from point A to B. Note that there is a very fine line between some types of uses in a curb zone and miscellaneous objects.</t>
+  </si>
+  <si>
+    <t>A loading zone; primarily for the loading and unloading of goods</t>
+  </si>
+  <si>
+    <t>A loading zone; primarily for passenger pickup/dropoff.</t>
+  </si>
+  <si>
+    <t>A zone where commerce is permitted; e.g. food trucks; farmer's markets; newstands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The type of median allowed. Possible values include: paint;curb; vegetated; vegetated_with_trees; stone; brick; other. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The type of buffer allowed. Possible values include:  paint;post;curb;planter;separator;vegetated; vegetated_with_trees;vegetated_with_tree_curb_cuts; stone; brick; other. </t>
+  </si>
+  <si>
+    <t>Any slice that has been reconfigured for a temporary purpose; e.g construction</t>
+  </si>
+  <si>
+    <t>What is this temporary purpose (e.g. construction; event)</t>
+  </si>
+  <si>
+    <t>If the slice is a barrier; type of barrier (e.g. traffic cone; jersey barrier; fencing; etc)</t>
+  </si>
+  <si>
+    <t>An area for plants; primarily for decorative purposes (though it can have an ecological impact). Usually placed in a sidewalk (as opposed to a median).</t>
+  </si>
+  <si>
+    <t>The planting strip type describes the type of vegetated buffer provided. Possible values include:vegetated; vegetated_with_trees;vegetated_with_tree_curb_cuts</t>
+  </si>
+  <si>
+    <t>An area designated for stormwater management; which is usually (but not required to be) vegetated.</t>
+  </si>
+  <si>
+    <t>vegetated; vegetated_with_trees;vegetated_with_tree_curb_cuts;filter_strip;transit_shelter;complex</t>
+  </si>
+  <si>
+    <t>paint;post;curb;planter;separator;vegetated; vegetated_with_trees;vegetated_with_tree_curb_cuts; stone; brick; other</t>
   </si>
 </sst>
 </file>
@@ -975,14 +975,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1269,8 +1269,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1288,14 +1288,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
@@ -1314,7 +1314,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -1351,7 +1351,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>9</v>
@@ -1371,7 +1371,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>9</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="11" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
@@ -1431,10 +1431,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1591,10 +1591,10 @@
         <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1631,10 +1631,10 @@
         <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1671,10 +1671,10 @@
         <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1711,10 +1711,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1731,7 +1731,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>9</v>
@@ -1751,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>9</v>
@@ -1779,10 +1779,10 @@
     </row>
     <row r="29" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>48</v>
@@ -1791,10 +1791,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1811,7 +1811,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>9</v>
@@ -1831,7 +1831,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>9</v>
@@ -1851,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>9</v>
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>9</v>
@@ -1891,7 +1891,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>9</v>
@@ -1911,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>9</v>
@@ -1931,7 +1931,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>9</v>
@@ -1951,10 +1951,10 @@
         <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1971,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>9</v>
@@ -1991,10 +1991,10 @@
         <v>15</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2011,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>9</v>
@@ -2031,10 +2031,10 @@
         <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2077,7 +2077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -2091,13 +2091,13 @@
         <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -2111,18 +2111,18 @@
         <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B46" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>6</v>
@@ -2131,18 +2131,18 @@
         <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="B47" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>48</v>
@@ -2151,10 +2151,10 @@
         <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2210,7 +2210,7 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2225,7 +2225,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2276,24 +2276,24 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2361,15 +2361,15 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>112</v>
@@ -2378,7 +2378,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2395,7 +2395,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2487,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
@@ -2559,7 +2559,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2583,7 +2583,7 @@
     <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -2595,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2626,10 +2626,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2637,8 +2637,8 @@
     <col min="1" max="1" width="15.89453125" customWidth="1"/>
     <col min="2" max="3" width="20.3671875" customWidth="1"/>
     <col min="4" max="4" width="30.1015625" customWidth="1"/>
-    <col min="5" max="5" width="28.15625" customWidth="1"/>
-    <col min="6" max="6" width="76.1015625" customWidth="1"/>
+    <col min="5" max="5" width="10.5234375" customWidth="1"/>
+    <col min="6" max="6" width="91.734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2648,7 +2648,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2659,7 +2659,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -2686,7 +2686,7 @@
     <row r="7" spans="1:6" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -2696,7 +2696,7 @@
         <v>129</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>133</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2712,7 +2712,7 @@
         <v>129</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>131</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2722,19 +2722,19 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>129</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
@@ -2744,14 +2744,14 @@
         <v>129</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>106</v>
@@ -2760,14 +2760,14 @@
         <v>129</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>106</v>
@@ -2776,19 +2776,19 @@
         <v>129</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="29.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="9"/>
+      <c r="A13" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="10"/>
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2801,7 +2801,7 @@
       <c r="E14" t="s">
         <v>124</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2810,21 +2810,21 @@
         <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2832,105 +2832,106 @@
         <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="5"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" t="s">
-        <v>161</v>
+        <v>134</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" t="s">
-        <v>164</v>
+        <v>140</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" t="s">
-        <v>159</v>
+        <v>138</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" t="s">
         <v>140</v>
-      </c>
-      <c r="D23" t="s">
-        <v>141</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
-      <c r="F23" t="s">
-        <v>165</v>
+      <c r="F23" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
       </c>
-      <c r="F24" t="s">
-        <v>143</v>
+      <c r="F24" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
-      <c r="F25" t="s">
-        <v>146</v>
+      <c r="F25" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>142</v>
-      </c>
-      <c r="F26" t="s">
-        <v>166</v>
+        <v>141</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2943,64 +2944,64 @@
       <c r="E27" t="s">
         <v>2</v>
       </c>
-      <c r="F27" t="s">
-        <v>167</v>
+      <c r="F27" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
       </c>
-      <c r="F28" t="s">
-        <v>168</v>
+      <c r="F28" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
       </c>
-      <c r="F29" t="s">
-        <v>171</v>
+      <c r="F29" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
       </c>
-      <c r="F30" t="s">
-        <v>172</v>
+      <c r="F30" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
       </c>
-      <c r="F31" t="s">
-        <v>172</v>
+      <c r="F31" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3008,241 +3009,257 @@
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" t="s">
-        <v>173</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E37" t="s">
         <v>129</v>
       </c>
-      <c r="F37" t="s">
-        <v>177</v>
+      <c r="F37" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E38" t="s">
         <v>129</v>
       </c>
-      <c r="F38" t="s">
-        <v>175</v>
+      <c r="F38" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E39" t="s">
         <v>129</v>
       </c>
-      <c r="F39" t="s">
-        <v>176</v>
+      <c r="F39" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E40" t="s">
         <v>129</v>
       </c>
-      <c r="F40" t="s">
-        <v>181</v>
+      <c r="F40" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E41" t="s">
         <v>129</v>
       </c>
-      <c r="F41" t="s">
-        <v>180</v>
+      <c r="F41" s="2" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E42" t="s">
         <v>129</v>
       </c>
-      <c r="F42" t="s">
-        <v>187</v>
+      <c r="F42" s="2" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E43" t="s">
         <v>129</v>
       </c>
-      <c r="F43" t="s">
-        <v>200</v>
+      <c r="F43" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E44" t="s">
         <v>129</v>
       </c>
-      <c r="F44" t="s">
-        <v>202</v>
+      <c r="F44" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E45" t="s">
         <v>129</v>
       </c>
-      <c r="F45" t="s">
-        <v>203</v>
-      </c>
+      <c r="F45" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
-        <v>158</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E48" t="s">
         <v>124</v>
       </c>
-      <c r="F48" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F48" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" t="s">
         <v>108</v>
       </c>
-      <c r="F49" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F49" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E50" t="s">
         <v>129</v>
       </c>
-      <c r="F50" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F50" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" t="s">
         <v>108</v>
       </c>
-      <c r="F51" t="s">
-        <v>207</v>
+      <c r="F51" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E52" t="s">
         <v>129</v>
       </c>
-      <c r="F52" t="s">
-        <v>182</v>
+      <c r="F52" s="2" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" t="s">
         <v>108</v>
       </c>
-      <c r="F53" t="s">
-        <v>185</v>
+      <c r="F53" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" t="s">
-        <v>183</v>
-      </c>
-      <c r="F54" t="s">
-        <v>184</v>
+        <v>176</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E55" t="s">
         <v>129</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E56" t="s">
         <v>129</v>
       </c>
-      <c r="F56" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" t="s">
-        <v>197</v>
-      </c>
-      <c r="E57" t="s">
-        <v>129</v>
-      </c>
-      <c r="F57" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F56" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E58" t="s">
         <v>129</v>
       </c>
-      <c r="F58" t="s">
-        <v>195</v>
+      <c r="F58" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="7"/>
+      <c r="A59" t="s">
+        <v>184</v>
+      </c>
+      <c r="E59" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="7"/>
+      <c r="F60" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3274,10 +3291,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3308,7 +3325,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3322,7 +3339,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3336,7 +3353,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3344,7 +3361,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -3364,7 +3381,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -3378,7 +3395,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -3392,7 +3409,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -3406,7 +3423,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -3420,7 +3437,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3434,7 +3451,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -3448,7 +3465,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -3476,7 +3493,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -3504,7 +3521,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -3532,7 +3549,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -3560,7 +3577,7 @@
         <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -3574,7 +3591,7 @@
         <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -3588,7 +3605,7 @@
         <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -3596,7 +3613,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>84</v>
@@ -3616,7 +3633,7 @@
         <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -3630,7 +3647,7 @@
         <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -3644,7 +3661,7 @@
         <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -3658,7 +3675,7 @@
         <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -3672,7 +3689,7 @@
         <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -3686,7 +3703,7 @@
         <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -3700,7 +3717,7 @@
         <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -3728,7 +3745,7 @@
         <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -3756,7 +3773,7 @@
         <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -3784,7 +3801,7 @@
         <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -3798,7 +3815,7 @@
         <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -3834,13 +3851,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B41" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -3848,10 +3865,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="B42" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>48</v>

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40DC3D7-097D-4368-97A5-1EE08B1BF7BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E65220-5B3C-482F-9635-B53A8A366F3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="274">
   <si>
     <t>Field name</t>
   </si>
@@ -788,18 +788,12 @@
     <t>rowindex</t>
   </si>
   <si>
-    <t xml:space="preserve">This metatag descripts the type of furniture zone being placed. The possible values include street_trees_in_planted_buffer (denotes spaced trees placed in a long vegetated buffer), street_trees_in_curb_cuts (denotes spaced trees in cuts in the cement), planted_buffer (denotes a grass or other semi-vegetated buffer along furniture zone), filter_strip (placement of bioswale or dipped catchment area for rain water in furniture zone), transit_shelter (denotes that a transit shelter is in the furniture zone), complex (denotes multiple types of objects in furniture zone perhaps better described by smaller segments in the slice specification). </t>
-  </si>
-  <si>
     <t xml:space="preserve">Description: Consists of a line geometry file that is a flat table consisting of standardized right of way description fields. Each shared-row-id considered unique, and represents a single consolidated centerline for a street (no dual carriageways). Right oriented fields denote lanes enabling traffic in the forward direction towards the end point of the line, and left oriented fields denote lanes enabling traffic in the reverse direciton toward the start point of the line.  Provides a GIS/SQL compatible database schema. </t>
   </si>
   <si>
     <t xml:space="preserve">Denotes whether the slice is facing forward (towards the geometry end point) or reverse (towards the geometry start point). Possible values are forward, reverse, and bidirectional. </t>
   </si>
   <si>
-    <t>This describes the type of buffer that exists in the street based on the type. Categories include paint (paint only buffers), post (flexible posts in a painted buffer), curb (raised cement curb buffer), planter (temporary or permanent planter in buffer), separator (raised element placed intermittently along buffer).</t>
-  </si>
-  <si>
     <t>asphalt;gravel;dirt;stone;brick</t>
   </si>
   <si>
@@ -879,6 +873,21 @@
   </si>
   <si>
     <t>paint;post;curb;planter;separator;vegetated; vegetated_with_trees;vegetated_with_tree_curb_cuts; stone; brick; other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This metatag descripts the type of furniture zone being placed. The possible values include street_trees_in_planted_buffer (denotes spaced trees placed in a long vegetated buffer), street_trees_in_curb_cuts (denotes spaced trees in cuts in the concrete), planted_buffer (denotes a grass or other semi-vegetated buffer along furniture zone), filter_strip (placoncrete of bioswale or dipped catchment area for rain water in furniture zone), transit_shelter (denotes that a transit shelter is in the furniture zone), complex (denotes multiple types of objects in furniture zone perhaps better described by smaller segments in the slice specification). </t>
+  </si>
+  <si>
+    <t>This describes the type of buffer that exists in the street based on the type. Categories include paint (paint only buffers), post (flexible posts in a painted buffer), curb (raised concrete curb buffer), planter (temporary or permanent planter in buffer), separator (raised element placed intermittently along buffer).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This metatag descripts the type of furniture zone being placed. The possible values include street_trees_in_planted_buffer (denotes spaced trees placed in a long vegetated buffer), street_trees_in_curb_cuts (denotes spaced trees in cuts in the concrete, planted_buffer (denotes a grass or other semi-vegetated buffer along furniture zone), filter_strip (placoncrete of bioswale or dipped catchment area for rain water in furniture zone), transit_shelter (denotes that a transit shelter is in the furniture zone), complex (denotes multiple types of objects in furniture zone perhaps better described by smaller segments in the slice specification). </t>
+  </si>
+  <si>
+    <t>median_with_turn_lane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While this could be represented with a median and a turn-lane slice, this short hand indicates a center area that tapers with a turn lane at the end of it segments. The total width in this slice is how wide the median is at its widest point. </t>
   </si>
 </sst>
 </file>
@@ -1269,8 +1278,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1289,7 +1298,7 @@
     </row>
     <row r="3" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1431,10 +1440,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1591,10 +1600,10 @@
         <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1791,10 +1800,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1954,7 +1963,7 @@
         <v>230</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2091,10 +2100,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
@@ -2111,10 +2120,10 @@
         <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2151,10 +2160,10 @@
         <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2361,7 +2370,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
@@ -2411,7 +2420,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2626,15 +2635,15 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.89453125" customWidth="1"/>
+    <col min="1" max="1" width="21.1015625" customWidth="1"/>
     <col min="2" max="3" width="20.3671875" customWidth="1"/>
     <col min="4" max="4" width="30.1015625" customWidth="1"/>
     <col min="5" max="5" width="10.5234375" customWidth="1"/>
@@ -2696,7 +2705,7 @@
         <v>129</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2712,7 +2721,7 @@
         <v>129</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2728,7 +2737,7 @@
         <v>129</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2744,7 +2753,7 @@
         <v>129</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2760,7 +2769,7 @@
         <v>129</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2776,7 +2785,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="29.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2854,7 +2863,7 @@
         <v>134</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2945,7 +2954,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2973,7 +2982,7 @@
         <v>15</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3024,12 +3033,12 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
         <v>155</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3073,7 +3082,7 @@
         <v>129</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3084,7 +3093,7 @@
         <v>129</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3095,7 +3104,7 @@
         <v>129</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3156,18 +3165,15 @@
         <v>108</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50" t="s">
-        <v>129</v>
+        <v>272</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3175,91 +3181,110 @@
         <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E52" t="s">
         <v>129</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" t="s">
         <v>108</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" t="s">
+      <c r="A54" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" t="s">
         <v>176</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" t="s">
+      <c r="F56" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
         <v>178</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E57" t="s">
         <v>129</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" t="s">
-        <v>183</v>
-      </c>
-      <c r="E56" t="s">
-        <v>129</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" t="s">
-        <v>108</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E58" t="s">
         <v>129</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
         <v>184</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E61" t="s">
         <v>129</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="7"/>
-      <c r="F60" s="8"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="7"/>
+      <c r="F62" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E65220-5B3C-482F-9635-B53A8A366F3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400A9589-EF25-482F-BFCB-0B85B9C2C396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="278">
   <si>
     <t>Field name</t>
   </si>
@@ -572,9 +572,6 @@
     <t>bus_allowed</t>
   </si>
   <si>
-    <t>see above</t>
-  </si>
-  <si>
     <t>A specially designated through-lane intended for any non-automotive vehicle.</t>
   </si>
   <si>
@@ -827,9 +824,6 @@
     <t>Through-lane dedicated to pedestrians; usually (but not always) on a raised curb</t>
   </si>
   <si>
-    <t>A string value indicating the type of rail transit (trolley; light rail; heavy rail)</t>
-  </si>
-  <si>
     <t>Whether the transit lane permits non-fixed-rail transit; e.g. buses</t>
   </si>
   <si>
@@ -888,6 +882,24 @@
   </si>
   <si>
     <t xml:space="preserve">While this could be represented with a median and a turn-lane slice, this short hand indicates a center area that tapers with a turn lane at the end of it segments. The total width in this slice is how wide the median is at its widest point. </t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>A string value indicating the type of rail transit (trolley;light rail;heavy rail)</t>
+  </si>
+  <si>
+    <t>pedestrians_allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the path allows pedestrians. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A shared-use path intended for both bicycle and pedestrian traffic. </t>
+  </si>
+  <si>
+    <t>Whether the path allows bikes (may have a MUTCD bicycle stamp).</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1310,7 @@
     </row>
     <row r="3" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1323,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -1360,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>9</v>
@@ -1380,7 +1392,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>9</v>
@@ -1428,10 +1440,10 @@
     </row>
     <row r="11" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
@@ -1440,10 +1452,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1600,10 +1612,10 @@
         <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1640,10 +1652,10 @@
         <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1680,10 +1692,10 @@
         <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1720,10 +1732,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1740,7 +1752,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>9</v>
@@ -1760,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>9</v>
@@ -1788,10 +1800,10 @@
     </row>
     <row r="29" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>48</v>
@@ -1800,10 +1812,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1820,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>9</v>
@@ -1840,7 +1852,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>9</v>
@@ -1860,7 +1872,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>9</v>
@@ -1880,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>9</v>
@@ -1900,7 +1912,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>9</v>
@@ -1920,7 +1932,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>9</v>
@@ -1940,7 +1952,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>9</v>
@@ -1960,10 +1972,10 @@
         <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1980,7 +1992,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>9</v>
@@ -2000,10 +2012,10 @@
         <v>15</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2020,7 +2032,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>9</v>
@@ -2040,10 +2052,10 @@
         <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2100,10 +2112,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
@@ -2120,18 +2132,18 @@
         <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>6</v>
@@ -2140,7 +2152,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>9</v>
@@ -2148,10 +2160,10 @@
     </row>
     <row r="47" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>48</v>
@@ -2160,10 +2172,10 @@
         <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2234,7 +2246,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2285,24 +2297,24 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" t="s">
         <v>200</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
@@ -2353,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2370,15 +2382,15 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>112</v>
@@ -2404,7 +2416,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2440,7 +2452,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2496,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
@@ -2568,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2592,7 +2604,7 @@
     <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -2635,10 +2647,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2668,7 +2680,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -2695,7 +2707,7 @@
     <row r="7" spans="1:6" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -2705,7 +2717,7 @@
         <v>129</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2721,7 +2733,7 @@
         <v>129</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2737,7 +2749,7 @@
         <v>129</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2753,14 +2765,14 @@
         <v>129</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>106</v>
@@ -2769,14 +2781,14 @@
         <v>129</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>106</v>
@@ -2785,7 +2797,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="29.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2863,7 +2875,7 @@
         <v>134</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2954,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2982,7 +2994,7 @@
         <v>15</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2996,7 +3008,7 @@
         <v>15</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3010,62 +3022,73 @@
         <v>15</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>272</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="s">
+        <v>274</v>
+      </c>
+      <c r="D34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="7" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E38" t="s">
-        <v>129</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>171</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="E39" t="s">
         <v>129</v>
@@ -3076,104 +3099,110 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E40" t="s">
         <v>129</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>256</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="E41" t="s">
         <v>129</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>257</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E42" t="s">
         <v>129</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E43" t="s">
         <v>129</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>187</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E44" t="s">
         <v>129</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>189</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E45" t="s">
         <v>129</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>187</v>
+      </c>
+      <c r="E47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" t="s">
-        <v>124</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" t="s">
-        <v>108</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" t="s">
-        <v>272</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3181,18 +3210,15 @@
         <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>149</v>
-      </c>
-      <c r="E52" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3200,91 +3226,110 @@
         <v>108</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E54" t="s">
         <v>129</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" t="s">
         <v>108</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" t="s">
-        <v>176</v>
+      <c r="A56" t="s">
+        <v>150</v>
+      </c>
+      <c r="E56" t="s">
+        <v>129</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E57" t="s">
-        <v>129</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" t="s">
-        <v>183</v>
-      </c>
-      <c r="E58" t="s">
-        <v>129</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" t="s">
-        <v>108</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E60" t="s">
         <v>129</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>185</v>
+      </c>
+      <c r="E62" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E61" t="s">
-        <v>129</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="7"/>
-      <c r="F62" s="8"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="7"/>
+      <c r="F64" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3316,10 +3361,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
         <v>205</v>
-      </c>
-      <c r="B1" t="s">
-        <v>206</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3350,7 +3395,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3364,7 +3409,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3378,7 +3423,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3386,7 +3431,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -3406,7 +3451,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -3420,7 +3465,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -3434,7 +3479,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -3448,7 +3493,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -3462,7 +3507,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3476,7 +3521,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -3490,7 +3535,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -3518,7 +3563,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -3546,7 +3591,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -3574,7 +3619,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -3602,7 +3647,7 @@
         <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -3616,7 +3661,7 @@
         <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -3630,7 +3675,7 @@
         <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -3638,7 +3683,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>84</v>
@@ -3658,7 +3703,7 @@
         <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -3672,7 +3717,7 @@
         <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -3686,7 +3731,7 @@
         <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -3700,7 +3745,7 @@
         <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -3714,7 +3759,7 @@
         <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -3728,7 +3773,7 @@
         <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -3742,7 +3787,7 @@
         <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -3770,7 +3815,7 @@
         <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -3798,7 +3843,7 @@
         <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -3826,7 +3871,7 @@
         <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -3840,7 +3885,7 @@
         <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -3876,13 +3921,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -3890,10 +3935,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>48</v>

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400A9589-EF25-482F-BFCB-0B85B9C2C396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103CA333-D6D0-4813-8B26-FAFD1E48BC5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Additive_Fields_Arc" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="287">
   <si>
     <t>Field name</t>
   </si>
@@ -521,9 +522,6 @@
     <t>temporary</t>
   </si>
   <si>
-    <t>A lane where automobiles are taken out of traffic flow in order to queue for turning</t>
-  </si>
-  <si>
     <t>A turn_lane may have a sharrow stamp</t>
   </si>
   <si>
@@ -878,12 +876,6 @@
     <t xml:space="preserve">This metatag descripts the type of furniture zone being placed. The possible values include street_trees_in_planted_buffer (denotes spaced trees placed in a long vegetated buffer), street_trees_in_curb_cuts (denotes spaced trees in cuts in the concrete, planted_buffer (denotes a grass or other semi-vegetated buffer along furniture zone), filter_strip (placoncrete of bioswale or dipped catchment area for rain water in furniture zone), transit_shelter (denotes that a transit shelter is in the furniture zone), complex (denotes multiple types of objects in furniture zone perhaps better described by smaller segments in the slice specification). </t>
   </si>
   <si>
-    <t>median_with_turn_lane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While this could be represented with a median and a turn-lane slice, this short hand indicates a center area that tapers with a turn lane at the end of it segments. The total width in this slice is how wide the median is at its widest point. </t>
-  </si>
-  <si>
     <t>path</t>
   </si>
   <si>
@@ -900,6 +892,42 @@
   </si>
   <si>
     <t>Whether the path allows bikes (may have a MUTCD bicycle stamp).</t>
+  </si>
+  <si>
+    <t>end_depth</t>
+  </si>
+  <si>
+    <t>begin_depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lane where automobiles are taken out of traffic flow in order to queue for turning. These lanes are considered to be center-running and can be bidirectional if they represent a block to block segment with end and begin depths for symmetrical intersection end points (no additional turn lanes on either end of the segment). Segments should be split if one block has varying turn lanes counts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This specifies the turn lane depth for the end point of the existing segment. If blank, it is assumed the turn lane is the depth of the entire length of the represented segment. For block to block representations, this parameter is required, and only works for symetrical end points of intersections. </t>
+  </si>
+  <si>
+    <t>Conditionally Required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This specifies the turn lane depth for the start point of the existing segment. If blank, it is assumed the turn lane is the depth of the entire length of the represented segment. For block to block representations, this parameter is required, and only works for symetrical end points of intersections. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This specifies the movements allowed at the turn. They are represented by a "|" delimited list of strings with the possible values of: left,right,through. </t>
+  </si>
+  <si>
+    <t>end_movements_allowed</t>
+  </si>
+  <si>
+    <t>begin_movements_allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This specifies the direction of the non-turnlane element after a transition ends. If none, assumed to be bidirectional. </t>
+  </si>
+  <si>
+    <t>remainder_allocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This specifies the allocation that remains in between turn lane pockets. If blank, it is assumed to be a median.  Otherwise, it can take on the properties of a slice type outlined in the specification. For block to block segments, this parameter is required unless the turn lanes takes up the full length of the segment. </t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1338,7 @@
     </row>
     <row r="3" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1335,7 +1363,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -1372,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>9</v>
@@ -1392,7 +1420,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>9</v>
@@ -1440,10 +1468,10 @@
     </row>
     <row r="11" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
@@ -1452,10 +1480,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1612,10 +1640,10 @@
         <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1652,10 +1680,10 @@
         <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1692,10 +1720,10 @@
         <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1732,10 +1760,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1752,7 +1780,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>9</v>
@@ -1772,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>9</v>
@@ -1800,10 +1828,10 @@
     </row>
     <row r="29" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>48</v>
@@ -1812,10 +1840,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1832,7 +1860,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>9</v>
@@ -1852,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>9</v>
@@ -1872,7 +1900,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>9</v>
@@ -1892,7 +1920,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>9</v>
@@ -1912,7 +1940,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>9</v>
@@ -1932,7 +1960,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>9</v>
@@ -1952,7 +1980,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>9</v>
@@ -1972,10 +2000,10 @@
         <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1992,7 +2020,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>9</v>
@@ -2012,10 +2040,10 @@
         <v>15</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2032,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>9</v>
@@ -2052,10 +2080,10 @@
         <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2112,10 +2140,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
@@ -2132,18 +2160,18 @@
         <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>6</v>
@@ -2152,7 +2180,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>9</v>
@@ -2160,10 +2188,10 @@
     </row>
     <row r="47" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>48</v>
@@ -2172,10 +2200,10 @@
         <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2232,7 +2260,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2246,7 +2274,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2266,7 +2294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2297,24 +2325,24 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" t="s">
         <v>199</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
@@ -2365,7 +2393,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2382,15 +2410,15 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>112</v>
@@ -2416,7 +2444,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2452,7 +2480,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2508,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
@@ -2580,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2604,7 +2632,7 @@
     <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -2647,10 +2675,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2658,7 +2686,7 @@
     <col min="1" max="1" width="21.1015625" customWidth="1"/>
     <col min="2" max="3" width="20.3671875" customWidth="1"/>
     <col min="4" max="4" width="30.1015625" customWidth="1"/>
-    <col min="5" max="5" width="10.5234375" customWidth="1"/>
+    <col min="5" max="5" width="13.41796875" style="2" customWidth="1"/>
     <col min="6" max="6" width="91.734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2680,7 +2708,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -2704,10 +2732,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -2717,7 +2745,7 @@
         <v>129</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2733,7 +2761,7 @@
         <v>129</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2749,7 +2777,7 @@
         <v>129</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2765,14 +2793,14 @@
         <v>129</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>106</v>
@@ -2781,14 +2809,14 @@
         <v>129</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>106</v>
@@ -2797,19 +2825,19 @@
         <v>129</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="29.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2819,7 +2847,7 @@
       <c r="D14" t="s">
         <v>112</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>124</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -2833,19 +2861,19 @@
       <c r="D15" t="s">
         <v>140</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>136</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>151</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2855,146 +2883,152 @@
       <c r="D17" t="s">
         <v>140</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="11" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="5"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="5"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" t="s">
+      <c r="F25" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
+      <c r="F27" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
         <v>138</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D29" t="s">
         <v>140</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>252</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3004,7 +3038,7 @@
       <c r="D30" t="s">
         <v>140</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -3018,7 +3052,7 @@
       <c r="D31" t="s">
         <v>140</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -3027,314 +3061,376 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>272</v>
+        <v>141</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>276</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" t="s">
-        <v>15</v>
+        <v>112</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
-        <v>274</v>
+        <v>165</v>
       </c>
       <c r="D34" t="s">
         <v>140</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F35" s="4"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>137</v>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="7" t="s">
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>269</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
-        <v>169</v>
-      </c>
-      <c r="E39" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
-        <v>179</v>
-      </c>
-      <c r="E40" t="s">
-        <v>129</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
-        <v>146</v>
-      </c>
-      <c r="E41" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>171</v>
-      </c>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E42" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>254</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="s">
-        <v>174</v>
-      </c>
-      <c r="E43" t="s">
-        <v>129</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" t="s">
-        <v>176</v>
-      </c>
-      <c r="E44" t="s">
-        <v>129</v>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>180</v>
-      </c>
-      <c r="E45" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>181</v>
-      </c>
-      <c r="E46" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>187</v>
-      </c>
-      <c r="E47" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F48" s="2"/>
+      <c r="A48" t="s">
+        <v>172</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F49" s="2"/>
+      <c r="A49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>148</v>
-      </c>
-      <c r="E50" t="s">
-        <v>124</v>
+        <v>175</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" t="s">
-        <v>108</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>270</v>
+        <v>180</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" t="s">
-        <v>108</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>186</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" t="s">
-        <v>149</v>
-      </c>
-      <c r="E54" t="s">
-        <v>129</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" t="s">
-        <v>108</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>258</v>
-      </c>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>150</v>
-      </c>
-      <c r="E56" t="s">
-        <v>129</v>
+        <v>148</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" t="s">
         <v>108</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" t="s">
-        <v>175</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" t="s">
-        <v>177</v>
-      </c>
-      <c r="E59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" t="s">
-        <v>182</v>
-      </c>
-      <c r="E60" t="s">
-        <v>129</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" t="s">
         <v>108</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" t="s">
-        <v>185</v>
-      </c>
-      <c r="E62" t="s">
-        <v>129</v>
+      <c r="B62" t="s">
+        <v>174</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
+        <v>176</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>181</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>184</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E63" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="7"/>
-      <c r="F64" s="8"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="7"/>
+      <c r="F68" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3361,10 +3457,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" t="s">
         <v>204</v>
-      </c>
-      <c r="B1" t="s">
-        <v>205</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3387,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -3395,13 +3491,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3409,13 +3505,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3423,7 +3519,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3431,7 +3527,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -3451,7 +3547,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -3465,7 +3561,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -3479,7 +3575,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -3493,7 +3589,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -3507,7 +3603,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3521,7 +3617,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -3535,7 +3631,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -3563,7 +3659,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -3591,7 +3687,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -3619,7 +3715,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -3647,7 +3743,7 @@
         <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -3661,7 +3757,7 @@
         <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -3675,7 +3771,7 @@
         <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -3683,7 +3779,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>84</v>
@@ -3703,7 +3799,7 @@
         <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -3717,7 +3813,7 @@
         <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -3731,7 +3827,7 @@
         <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -3745,7 +3841,7 @@
         <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -3759,7 +3855,7 @@
         <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -3773,7 +3869,7 @@
         <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -3787,7 +3883,7 @@
         <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -3815,7 +3911,7 @@
         <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -3843,7 +3939,7 @@
         <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -3871,7 +3967,7 @@
         <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -3885,7 +3981,7 @@
         <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -3921,13 +4017,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -3935,10 +4031,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>48</v>

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103CA333-D6D0-4813-8B26-FAFD1E48BC5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A44033-5B3F-4970-B0DB-D583814DB084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="Additive_Fields_Arc" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="286">
   <si>
     <t>Field name</t>
   </si>
@@ -753,9 +752,6 @@
     <t>Possible Values</t>
   </si>
   <si>
-    <t>This describes the type of buffer that exists in the street based on the type. Categories include paint (paint only buffers), post (flexible posts in a painted buffer), curb (raised curb buffer), planter (temporary or permanent planter in buffer), separator (raised element placed intermittently along buffer).</t>
-  </si>
-  <si>
     <t xml:space="preserve">This describes the parking parking zone type allowed. Categories include parking (personal vehicle storage), passenger_loading (passenger drop-off / loading) ,freight_loading (commercial vehicle drop-off / loading), parklet (mini-park or pedestrianized space) no-parking (no parking zone/fire lane/ etc.). It is not assumed that the entire curb is taken up by one of these uses, but just that it has atleast one of them. </t>
   </si>
   <si>
@@ -840,9 +836,6 @@
     <t xml:space="preserve">The type of median allowed. Possible values include: paint;curb; vegetated; vegetated_with_trees; stone; brick; other. </t>
   </si>
   <si>
-    <t xml:space="preserve">The type of buffer allowed. Possible values include:  paint;post;curb;planter;separator;vegetated; vegetated_with_trees;vegetated_with_tree_curb_cuts; stone; brick; other. </t>
-  </si>
-  <si>
     <t>Any slice that has been reconfigured for a temporary purpose; e.g construction</t>
   </si>
   <si>
@@ -864,15 +857,9 @@
     <t>vegetated; vegetated_with_trees;vegetated_with_tree_curb_cuts;filter_strip;transit_shelter;complex</t>
   </si>
   <si>
-    <t>paint;post;curb;planter;separator;vegetated; vegetated_with_trees;vegetated_with_tree_curb_cuts; stone; brick; other</t>
-  </si>
-  <si>
     <t xml:space="preserve">This metatag descripts the type of furniture zone being placed. The possible values include street_trees_in_planted_buffer (denotes spaced trees placed in a long vegetated buffer), street_trees_in_curb_cuts (denotes spaced trees in cuts in the concrete), planted_buffer (denotes a grass or other semi-vegetated buffer along furniture zone), filter_strip (placoncrete of bioswale or dipped catchment area for rain water in furniture zone), transit_shelter (denotes that a transit shelter is in the furniture zone), complex (denotes multiple types of objects in furniture zone perhaps better described by smaller segments in the slice specification). </t>
   </si>
   <si>
-    <t>This describes the type of buffer that exists in the street based on the type. Categories include paint (paint only buffers), post (flexible posts in a painted buffer), curb (raised concrete curb buffer), planter (temporary or permanent planter in buffer), separator (raised element placed intermittently along buffer).</t>
-  </si>
-  <si>
     <t xml:space="preserve">This metatag descripts the type of furniture zone being placed. The possible values include street_trees_in_planted_buffer (denotes spaced trees placed in a long vegetated buffer), street_trees_in_curb_cuts (denotes spaced trees in cuts in the concrete, planted_buffer (denotes a grass or other semi-vegetated buffer along furniture zone), filter_strip (placoncrete of bioswale or dipped catchment area for rain water in furniture zone), transit_shelter (denotes that a transit shelter is in the furniture zone), complex (denotes multiple types of objects in furniture zone perhaps better described by smaller segments in the slice specification). </t>
   </si>
   <si>
@@ -928,6 +915,15 @@
   </si>
   <si>
     <t xml:space="preserve">This specifies the allocation that remains in between turn lane pockets. If blank, it is assumed to be a median.  Otherwise, it can take on the properties of a slice type outlined in the specification. For block to block segments, this parameter is required unless the turn lanes takes up the full length of the segment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The type of buffer allowed. Possible values include:  paint;post;curb;planter;separator;vegetated; vegetated_with_trees;vegetated_with_tree_curb_cuts; stone;bollard;brick; other. </t>
+  </si>
+  <si>
+    <t>paint;post;curb;planter;separator;vegetated; vegetated_with_trees;vegetated_with_tree_curb_cuts; stone;brick;bollard;other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This describes the type of buffer that exists in the street based on the type. Categories include paint (paint only buffers), post (flexible posts in a painted buffer), curb (raised concrete curb buffer), planter (temporary or permanent planter in buffer),vegetated(curb buffer with vegetation or grass),vegetated_with_trees (curb buffer with trees or other vegetation in the buffer),vegetated_with_tree_curb_cuts(curb buffers with vegetation and trees with gaps),stone (large stones delinating the buffer),brick (raised brick inset in a curb buffer),bollard (rigid post separating bicyclists from traffic), separator (raised element placed intermittently along buffer), and other (some other buffer type). </t>
   </si>
 </sst>
 </file>
@@ -1318,8 +1314,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1338,7 +1334,7 @@
     </row>
     <row r="3" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1480,10 +1476,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1626,7 +1622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1640,10 +1636,10 @@
         <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1680,10 +1676,10 @@
         <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1720,10 +1716,10 @@
         <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1760,10 +1756,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1840,10 +1836,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1986,7 +1982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
         <v>77</v>
       </c>
@@ -2000,10 +1996,10 @@
         <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2040,10 +2036,10 @@
         <v>15</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2080,10 +2076,10 @@
         <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2140,10 +2136,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
@@ -2160,10 +2156,10 @@
         <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2200,10 +2196,10 @@
         <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2330,7 +2326,7 @@
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
         <v>198</v>
@@ -2393,7 +2389,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2410,7 +2406,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
@@ -2459,7 +2455,7 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2608,7 +2604,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2677,8 +2673,8 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2745,7 +2741,7 @@
         <v>129</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2761,7 +2757,7 @@
         <v>129</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2777,7 +2773,7 @@
         <v>129</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2793,7 +2789,7 @@
         <v>129</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2809,7 +2805,7 @@
         <v>129</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2825,7 +2821,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="29.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2873,7 +2869,7 @@
         <v>136</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2892,72 +2888,72 @@
     </row>
     <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D18" t="s">
         <v>131</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D19" t="s">
         <v>131</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D20" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D21" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D22" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2971,7 +2967,7 @@
         <v>15</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2987,7 +2983,7 @@
         <v>134</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3078,7 +3074,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3106,7 +3102,7 @@
         <v>15</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3139,10 +3135,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
+        <v>265</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3156,12 +3152,12 @@
         <v>15</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D40" t="s">
         <v>140</v>
@@ -3170,7 +3166,7 @@
         <v>15</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3195,7 +3191,7 @@
         <v>154</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3239,7 +3235,7 @@
         <v>129</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3250,7 +3246,7 @@
         <v>129</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3261,7 +3257,7 @@
         <v>129</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3322,7 +3318,7 @@
         <v>108</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3341,7 +3337,7 @@
         <v>108</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3352,7 +3348,7 @@
         <v>129</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3360,7 +3356,7 @@
         <v>108</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3368,7 +3364,7 @@
         <v>174</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3390,7 +3386,7 @@
         <v>129</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3398,7 +3394,7 @@
         <v>108</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3409,7 +3405,7 @@
         <v>129</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A44033-5B3F-4970-B0DB-D583814DB084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8E7E42-249E-4EBB-A376-AD66463D66F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -923,7 +923,7 @@
     <t>paint;post;curb;planter;separator;vegetated; vegetated_with_trees;vegetated_with_tree_curb_cuts; stone;brick;bollard;other</t>
   </si>
   <si>
-    <t xml:space="preserve">This describes the type of buffer that exists in the street based on the type. Categories include paint (paint only buffers), post (flexible posts in a painted buffer), curb (raised concrete curb buffer), planter (temporary or permanent planter in buffer),vegetated(curb buffer with vegetation or grass),vegetated_with_trees (curb buffer with trees or other vegetation in the buffer),vegetated_with_tree_curb_cuts(curb buffers with vegetation and trees with gaps),stone (large stones delinating the buffer),brick (raised brick inset in a curb buffer),bollard (rigid post separating bicyclists from traffic), separator (raised element placed intermittently along buffer), and other (some other buffer type). </t>
+    <t xml:space="preserve">This describes the type of buffer that exists in the street based on the type. Categories include paint (paint only buffers), post (flexible posts in a painted buffer), curb (raised concrete curb buffer), planter (temporary or permanent planter in buffer),vegetated(curb buffer with vegetation or grass),vegetated_with_trees (curb buffer with trees or other vegetation in the buffer),vegetated_with_tree_curb_cuts(curb buffers with vegetation and trees with gaps),stone (large stones delinating the buffer),brick (raised brick inset in a curb buffer),bollard (rigid post separating bicyclists from traffic), separator (raised element placed intermittently along buffer such as parking stops or zebra domes), and other (some other buffer type). </t>
   </si>
 </sst>
 </file>
@@ -1314,8 +1314,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1622,7 +1622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
         <v>77</v>
       </c>

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8E7E42-249E-4EBB-A376-AD66463D66F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95FB7E3-E00F-42FB-A4B9-9C90491E501C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,9 +854,6 @@
     <t>An area designated for stormwater management; which is usually (but not required to be) vegetated.</t>
   </si>
   <si>
-    <t>vegetated; vegetated_with_trees;vegetated_with_tree_curb_cuts;filter_strip;transit_shelter;complex</t>
-  </si>
-  <si>
     <t xml:space="preserve">This metatag descripts the type of furniture zone being placed. The possible values include street_trees_in_planted_buffer (denotes spaced trees placed in a long vegetated buffer), street_trees_in_curb_cuts (denotes spaced trees in cuts in the concrete), planted_buffer (denotes a grass or other semi-vegetated buffer along furniture zone), filter_strip (placoncrete of bioswale or dipped catchment area for rain water in furniture zone), transit_shelter (denotes that a transit shelter is in the furniture zone), complex (denotes multiple types of objects in furniture zone perhaps better described by smaller segments in the slice specification). </t>
   </si>
   <si>
@@ -924,6 +921,9 @@
   </si>
   <si>
     <t xml:space="preserve">This describes the type of buffer that exists in the street based on the type. Categories include paint (paint only buffers), post (flexible posts in a painted buffer), curb (raised concrete curb buffer), planter (temporary or permanent planter in buffer),vegetated(curb buffer with vegetation or grass),vegetated_with_trees (curb buffer with trees or other vegetation in the buffer),vegetated_with_tree_curb_cuts(curb buffers with vegetation and trees with gaps),stone (large stones delinating the buffer),brick (raised brick inset in a curb buffer),bollard (rigid post separating bicyclists from traffic), separator (raised element placed intermittently along buffer such as parking stops or zebra domes), and other (some other buffer type). </t>
+  </si>
+  <si>
+    <t>vegetated;vegetated_with_trees;vegetated_with_tree_curb_cuts;filter_strip;transit_shelter;complex</t>
   </si>
 </sst>
 </file>
@@ -1314,8 +1314,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1476,10 +1476,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1636,10 +1636,10 @@
         <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1836,10 +1836,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1996,10 +1996,10 @@
         <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2869,7 +2869,7 @@
         <v>136</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2888,72 +2888,72 @@
     </row>
     <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D18" t="s">
         <v>131</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D19" t="s">
         <v>131</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D20" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D21" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D22" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2967,7 +2967,7 @@
         <v>15</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3074,7 +3074,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3135,10 +3135,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3152,12 +3152,12 @@
         <v>15</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D40" t="s">
         <v>140</v>
@@ -3166,7 +3166,7 @@
         <v>15</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3337,7 +3337,7 @@
         <v>108</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95FB7E3-E00F-42FB-A4B9-9C90491E501C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C94B466-6884-4D47-BF88-B01593EF2D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
@@ -671,9 +671,6 @@
     <t xml:space="preserve">A numeric index starting at 0 to the number of slices in the current SharedStreetID segment. The RowIndex with a SharedStreetID should be a unique ID if used in combination. </t>
   </si>
   <si>
-    <t>This denotes any other metadata to be associated with the slice. Consists of a list of tags in the formate: "tag_name"=&gt;tag_value;"tag_name_2"=&gt;tag_value</t>
-  </si>
-  <si>
     <t xml:space="preserve">Description: A share-row-crosswalk consists of each row representing a slice of a shared-street id. Intended to allow the conversion between Additive and Sliced based specifications in an editable GIS/SQL database. </t>
   </si>
   <si>
@@ -924,6 +921,9 @@
   </si>
   <si>
     <t>vegetated;vegetated_with_trees;vegetated_with_tree_curb_cuts;filter_strip;transit_shelter;complex</t>
+  </si>
+  <si>
+    <t>This denotes any other metadata to be associated with the slice. Consists of a list of tags in the format: {"tag_name":tag_value;"tag_name_2":tag_value}</t>
   </si>
 </sst>
 </file>
@@ -1314,8 +1314,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="3" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1359,7 +1359,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -1416,7 +1416,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>9</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="11" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
@@ -1476,10 +1476,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1636,10 +1636,10 @@
         <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1676,10 +1676,10 @@
         <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1716,10 +1716,10 @@
         <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1756,10 +1756,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1776,7 +1776,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>9</v>
@@ -1796,7 +1796,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>9</v>
@@ -1824,10 +1824,10 @@
     </row>
     <row r="29" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>48</v>
@@ -1836,10 +1836,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1856,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>9</v>
@@ -1876,7 +1876,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>9</v>
@@ -1896,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>9</v>
@@ -1916,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>9</v>
@@ -1936,7 +1936,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>9</v>
@@ -1956,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>9</v>
@@ -1976,7 +1976,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>9</v>
@@ -1996,10 +1996,10 @@
         <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2016,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>9</v>
@@ -2036,10 +2036,10 @@
         <v>15</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2056,7 +2056,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>9</v>
@@ -2076,10 +2076,10 @@
         <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2136,10 +2136,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
@@ -2156,18 +2156,18 @@
         <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>6</v>
@@ -2176,7 +2176,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>9</v>
@@ -2184,10 +2184,10 @@
     </row>
     <row r="47" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>48</v>
@@ -2196,10 +2196,10 @@
         <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2255,8 +2255,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2270,7 +2270,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2326,7 +2326,7 @@
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
         <v>198</v>
@@ -2389,7 +2389,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2406,7 +2406,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
@@ -2440,7 +2440,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2455,8 +2455,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2604,7 +2604,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2673,8 +2673,8 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2741,7 +2741,7 @@
         <v>129</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2757,7 +2757,7 @@
         <v>129</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2773,7 +2773,7 @@
         <v>129</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2789,7 +2789,7 @@
         <v>129</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2805,7 +2805,7 @@
         <v>129</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2821,7 +2821,7 @@
         <v>129</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="29.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2869,7 +2869,7 @@
         <v>136</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2888,72 +2888,72 @@
     </row>
     <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D18" t="s">
         <v>131</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D19" t="s">
         <v>131</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D20" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D21" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D22" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2967,7 +2967,7 @@
         <v>15</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2983,7 +2983,7 @@
         <v>134</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3074,7 +3074,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3102,7 +3102,7 @@
         <v>15</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3135,10 +3135,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3152,12 +3152,12 @@
         <v>15</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D40" t="s">
         <v>140</v>
@@ -3166,7 +3166,7 @@
         <v>15</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3191,7 +3191,7 @@
         <v>154</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3235,7 +3235,7 @@
         <v>129</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3246,7 +3246,7 @@
         <v>129</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3257,7 +3257,7 @@
         <v>129</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3318,7 +3318,7 @@
         <v>108</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3337,7 +3337,7 @@
         <v>108</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3348,7 +3348,7 @@
         <v>129</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3356,7 +3356,7 @@
         <v>108</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3364,7 +3364,7 @@
         <v>174</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3386,7 +3386,7 @@
         <v>129</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3394,7 +3394,7 @@
         <v>108</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3405,7 +3405,7 @@
         <v>129</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3453,10 +3453,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" t="s">
         <v>203</v>
-      </c>
-      <c r="B1" t="s">
-        <v>204</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3487,7 +3487,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -3543,7 +3543,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3613,7 +3613,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -3683,7 +3683,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -3753,7 +3753,7 @@
         <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>84</v>
@@ -3795,7 +3795,7 @@
         <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -3809,7 +3809,7 @@
         <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -3823,7 +3823,7 @@
         <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -3851,7 +3851,7 @@
         <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -3865,7 +3865,7 @@
         <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -4013,13 +4013,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -4027,10 +4027,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>48</v>

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C94B466-6884-4D47-BF88-B01593EF2D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0358E083-682A-4F18-94FC-B4AAF987C9F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="288">
   <si>
     <t>Field name</t>
   </si>
@@ -369,9 +369,6 @@
   </si>
   <si>
     <t>String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denotes from left to right, slices of a right of way, whose subattributes denote  its characteristics.The main sub-attribute are the type of slices (drive_lane, bike_lane,walkway, etc), its width in meters, its height in meters, its direction (forward or reverse), and a meta-data tag with other information about the slice (color, improvement year, or other information). </t>
   </si>
   <si>
     <t>meta</t>
@@ -924,6 +921,15 @@
   </si>
   <si>
     <t>This denotes any other metadata to be associated with the slice. Consists of a list of tags in the format: {"tag_name":tag_value;"tag_name_2":tag_value}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denotes from left to right, slices of a right of way, whose subattributes denote  its characteristics.The main sub-attribute are the type of slices (drive_lane, bike_lane,walkway, etc), its width in meters, its height in meters, its direction (forward or reverse), and a meta-data tag with other information about the slice (color, improvement year, or other information). These JSON slices will be located in the properties of the GEOJSON. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SharedStreets ID for the specific segment of a consolidated centerline (no dual carriageways). This should be a unique ID. This field will be located in the properties of the GEOJSON. </t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1314,8 +1320,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1334,7 +1340,7 @@
     </row>
     <row r="3" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1359,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -1396,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>9</v>
@@ -1416,7 +1422,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>9</v>
@@ -1464,10 +1470,10 @@
     </row>
     <row r="11" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
@@ -1476,10 +1482,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1636,10 +1642,10 @@
         <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1676,10 +1682,10 @@
         <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1716,10 +1722,10 @@
         <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1756,10 +1762,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1776,7 +1782,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>9</v>
@@ -1796,7 +1802,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>9</v>
@@ -1824,10 +1830,10 @@
     </row>
     <row r="29" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>48</v>
@@ -1836,10 +1842,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1856,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>9</v>
@@ -1876,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>9</v>
@@ -1896,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>9</v>
@@ -1916,7 +1922,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>9</v>
@@ -1936,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>9</v>
@@ -1956,7 +1962,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>9</v>
@@ -1976,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>9</v>
@@ -1996,10 +2002,10 @@
         <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2016,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>9</v>
@@ -2036,10 +2042,10 @@
         <v>15</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2056,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>9</v>
@@ -2076,10 +2082,10 @@
         <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2136,10 +2142,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
@@ -2156,18 +2162,18 @@
         <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>6</v>
@@ -2176,7 +2182,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>9</v>
@@ -2184,10 +2190,10 @@
     </row>
     <row r="47" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>48</v>
@@ -2196,10 +2202,10 @@
         <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2255,8 +2261,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2270,7 +2276,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2321,24 +2327,24 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" t="s">
         <v>198</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
@@ -2355,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2372,7 +2378,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2389,7 +2395,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2406,15 +2412,15 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>112</v>
@@ -2423,15 +2429,15 @@
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>112</v>
@@ -2440,7 +2446,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2455,8 +2461,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2476,7 +2482,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2517,7 +2523,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>104</v>
       </c>
@@ -2532,10 +2538,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>105</v>
       </c>
@@ -2550,10 +2556,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>108</v>
@@ -2568,7 +2574,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>117</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2586,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2604,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2622,13 +2628,13 @@
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -2640,12 +2646,12 @@
         <v>2</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
@@ -2657,7 +2663,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2688,23 +2694,23 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -2718,46 +2724,46 @@
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2767,193 +2773,193 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="29.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D20" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D21" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D22" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2967,12 +2973,12 @@
         <v>15</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="5"/>
@@ -2980,87 +2986,87 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="D26" t="s">
-        <v>140</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" t="s">
         <v>139</v>
-      </c>
-      <c r="D29" t="s">
-        <v>140</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3074,113 +3080,113 @@
         <v>2</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3188,109 +3194,109 @@
     </row>
     <row r="44" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3298,19 +3304,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3318,18 +3324,18 @@
         <v>108</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3337,18 +3343,18 @@
         <v>108</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3356,37 +3362,37 @@
         <v>108</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
+        <v>175</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3394,29 +3400,29 @@
         <v>108</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3453,10 +3459,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
         <v>202</v>
-      </c>
-      <c r="B1" t="s">
-        <v>203</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3487,7 +3493,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3501,7 +3507,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3515,7 +3521,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3523,7 +3529,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -3543,7 +3549,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -3557,7 +3563,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -3571,7 +3577,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -3585,7 +3591,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -3599,7 +3605,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3613,7 +3619,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -3627,7 +3633,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -3655,7 +3661,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -3683,7 +3689,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -3711,7 +3717,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -3739,7 +3745,7 @@
         <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -3753,7 +3759,7 @@
         <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -3767,7 +3773,7 @@
         <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -3775,7 +3781,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>84</v>
@@ -3795,7 +3801,7 @@
         <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -3809,7 +3815,7 @@
         <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -3823,7 +3829,7 @@
         <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -3837,7 +3843,7 @@
         <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -3851,7 +3857,7 @@
         <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -3865,7 +3871,7 @@
         <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -3879,7 +3885,7 @@
         <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -3907,7 +3913,7 @@
         <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -3935,7 +3941,7 @@
         <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -3963,7 +3969,7 @@
         <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -3977,7 +3983,7 @@
         <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -4013,13 +4019,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -4027,10 +4033,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>48</v>

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0358E083-682A-4F18-94FC-B4AAF987C9F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A99BD1-BF64-4877-885C-578DF0623FAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="287">
   <si>
     <t>Field name</t>
   </si>
@@ -764,9 +764,6 @@
     <t>bus;hov;rail;bus_bike</t>
   </si>
   <si>
-    <t xml:space="preserve">Denotes the height in centimeters (cm) of the slice relative to the rest of the road. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Denotes the height in centimeters (cm) of the slice relative to the rest of the roadbed. </t>
   </si>
   <si>
@@ -929,7 +926,7 @@
     <t xml:space="preserve">SharedStreets ID for the specific segment of a consolidated centerline (no dual carriageways). This should be a unique ID. This field will be located in the properties of the GEOJSON. </t>
   </si>
   <si>
-    <t>s</t>
+    <t xml:space="preserve">Denotes the height in centimeters (cm) of the slice relative to the rest of the road. Defaults to 0. </t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1337,7 @@
     </row>
     <row r="3" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1482,10 +1479,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1642,10 +1639,10 @@
         <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1842,10 +1839,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2002,10 +1999,10 @@
         <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2142,10 +2139,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
@@ -2162,10 +2159,10 @@
         <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2202,10 +2199,10 @@
         <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2262,7 +2259,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2332,7 +2329,7 @@
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
         <v>197</v>
@@ -2395,7 +2392,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2412,7 +2409,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
@@ -2446,7 +2443,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2461,8 +2458,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2538,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
@@ -2556,10 +2553,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>108</v>
@@ -2574,7 +2571,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>287</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2610,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2747,7 +2744,7 @@
         <v>128</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2763,7 +2760,7 @@
         <v>128</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2779,7 +2776,7 @@
         <v>128</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2795,7 +2792,7 @@
         <v>128</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2811,7 +2808,7 @@
         <v>128</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2827,7 +2824,7 @@
         <v>128</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="29.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2875,7 +2872,7 @@
         <v>135</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2894,72 +2891,72 @@
     </row>
     <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D18" t="s">
         <v>130</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D19" t="s">
         <v>130</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D20" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D21" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D22" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2973,7 +2970,7 @@
         <v>15</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2989,7 +2986,7 @@
         <v>133</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3080,7 +3077,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3108,7 +3105,7 @@
         <v>15</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3141,10 +3138,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3158,12 +3155,12 @@
         <v>15</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D40" t="s">
         <v>139</v>
@@ -3172,7 +3169,7 @@
         <v>15</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3197,7 +3194,7 @@
         <v>153</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3241,7 +3238,7 @@
         <v>128</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3252,7 +3249,7 @@
         <v>128</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3263,7 +3260,7 @@
         <v>128</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3324,7 +3321,7 @@
         <v>108</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3343,7 +3340,7 @@
         <v>108</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3354,7 +3351,7 @@
         <v>128</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3362,7 +3359,7 @@
         <v>108</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3370,7 +3367,7 @@
         <v>173</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3392,7 +3389,7 @@
         <v>128</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3400,7 +3397,7 @@
         <v>108</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3411,7 +3408,7 @@
         <v>128</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A99BD1-BF64-4877-885C-578DF0623FAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E03A74-9307-47FC-AC30-3D4AF314D9B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="295">
   <si>
     <t>Field name</t>
   </si>
@@ -581,27 +581,18 @@
     <t>Generic designation for a curb zone with varying uses.</t>
   </si>
   <si>
-    <t>freight_loading</t>
-  </si>
-  <si>
     <t>passenger_loading</t>
   </si>
   <si>
     <t>barrier_type</t>
   </si>
   <si>
-    <t>commercial</t>
-  </si>
-  <si>
     <t>transit_shelter</t>
   </si>
   <si>
     <t>An area / platform for waiting for transit</t>
   </si>
   <si>
-    <t>auto_parking</t>
-  </si>
-  <si>
     <t>bike_parking</t>
   </si>
   <si>
@@ -740,18 +731,9 @@
     <t>Off_St_M</t>
   </si>
   <si>
-    <t xml:space="preserve">Width in meters of an off-street path facility or gravel road that does not have clear delinations for direction that runs parallel to the segment or is the segment being described (all other attributes are zero). </t>
-  </si>
-  <si>
     <t>Possible Values</t>
   </si>
   <si>
-    <t xml:space="preserve">This describes the parking parking zone type allowed. Categories include parking (personal vehicle storage), passenger_loading (passenger drop-off / loading) ,freight_loading (commercial vehicle drop-off / loading), parklet (mini-park or pedestrianized space) no-parking (no parking zone/fire lane/ etc.). It is not assumed that the entire curb is taken up by one of these uses, but just that it has atleast one of them. </t>
-  </si>
-  <si>
-    <t>parking;passenger_loading;freight_loading;parklet;no-parking</t>
-  </si>
-  <si>
     <t>This describes transit lane type. The possible values include bus (bus only lane), hov (high occupancy vehicle lane), rail (light rail/street car lane), bus_bike (bus and bike shared lane).</t>
   </si>
   <si>
@@ -779,12 +761,6 @@
     <t>asphalt;gravel;dirt;stone;brick</t>
   </si>
   <si>
-    <t xml:space="preserve">This describes the type of off-street facility being represented. If the geometry represents an off-street path rather than a road or a road that has no formal delination, this tag along side Off_St_W can be used to represent a simplified rural road or path. The possible values are asphalt (impervious petroleum based path surface), gravel (loose aggregate material delinate path), dirt (compacted soil with little or no vegetation delinate path), stone (large cobblestone or other type of surface), brick (clay brick trail surface). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This describes the type of crosswalk at the beginning of the segment. The types of crosswalk that are possible are continental (high visibility bars spaced across intersection), transverse (standard two painted lines across intersection), ladder (combination of two painted lines and continental bars), textured (some type of custom colored &amp; textured pavement based crosswalk),zebra (combinatin of two painted lines and angled diagonal crossbars), other (other custom crosswalk design). </t>
-  </si>
-  <si>
     <t>continental;transverse;ladder;textured;zebra;other</t>
   </si>
   <si>
@@ -818,18 +794,9 @@
     <t>A loading zone; primarily for the loading and unloading of goods</t>
   </si>
   <si>
-    <t>A loading zone; primarily for passenger pickup/dropoff.</t>
-  </si>
-  <si>
-    <t>A zone where commerce is permitted; e.g. food trucks; farmer's markets; newstands</t>
-  </si>
-  <si>
     <t xml:space="preserve">The type of median allowed. Possible values include: paint;curb; vegetated; vegetated_with_trees; stone; brick; other. </t>
   </si>
   <si>
-    <t>Any slice that has been reconfigured for a temporary purpose; e.g construction</t>
-  </si>
-  <si>
     <t>What is this temporary purpose (e.g. construction; event)</t>
   </si>
   <si>
@@ -845,12 +812,6 @@
     <t>An area designated for stormwater management; which is usually (but not required to be) vegetated.</t>
   </si>
   <si>
-    <t xml:space="preserve">This metatag descripts the type of furniture zone being placed. The possible values include street_trees_in_planted_buffer (denotes spaced trees placed in a long vegetated buffer), street_trees_in_curb_cuts (denotes spaced trees in cuts in the concrete), planted_buffer (denotes a grass or other semi-vegetated buffer along furniture zone), filter_strip (placoncrete of bioswale or dipped catchment area for rain water in furniture zone), transit_shelter (denotes that a transit shelter is in the furniture zone), complex (denotes multiple types of objects in furniture zone perhaps better described by smaller segments in the slice specification). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This metatag descripts the type of furniture zone being placed. The possible values include street_trees_in_planted_buffer (denotes spaced trees placed in a long vegetated buffer), street_trees_in_curb_cuts (denotes spaced trees in cuts in the concrete, planted_buffer (denotes a grass or other semi-vegetated buffer along furniture zone), filter_strip (placoncrete of bioswale or dipped catchment area for rain water in furniture zone), transit_shelter (denotes that a transit shelter is in the furniture zone), complex (denotes multiple types of objects in furniture zone perhaps better described by smaller segments in the slice specification). </t>
-  </si>
-  <si>
     <t>path</t>
   </si>
   <si>
@@ -878,15 +839,9 @@
     <t xml:space="preserve">A lane where automobiles are taken out of traffic flow in order to queue for turning. These lanes are considered to be center-running and can be bidirectional if they represent a block to block segment with end and begin depths for symmetrical intersection end points (no additional turn lanes on either end of the segment). Segments should be split if one block has varying turn lanes counts. </t>
   </si>
   <si>
-    <t xml:space="preserve">This specifies the turn lane depth for the end point of the existing segment. If blank, it is assumed the turn lane is the depth of the entire length of the represented segment. For block to block representations, this parameter is required, and only works for symetrical end points of intersections. </t>
-  </si>
-  <si>
     <t>Conditionally Required</t>
   </si>
   <si>
-    <t xml:space="preserve">This specifies the turn lane depth for the start point of the existing segment. If blank, it is assumed the turn lane is the depth of the entire length of the represented segment. For block to block representations, this parameter is required, and only works for symetrical end points of intersections. </t>
-  </si>
-  <si>
     <t xml:space="preserve">This specifies the movements allowed at the turn. They are represented by a "|" delimited list of strings with the possible values of: left,right,through. </t>
   </si>
   <si>
@@ -927,6 +882,75 @@
   </si>
   <si>
     <t xml:space="preserve">Denotes the height in centimeters (cm) of the slice relative to the rest of the road. Defaults to 0. </t>
+  </si>
+  <si>
+    <t>commercial_loading</t>
+  </si>
+  <si>
+    <t>construction_zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A zone that indicates there is currently construction taking up space. </t>
+  </si>
+  <si>
+    <t>tow_away_zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A zone where tow-away rules are in place at nearly all times. </t>
+  </si>
+  <si>
+    <t>parking</t>
+  </si>
+  <si>
+    <t>commercial_activity</t>
+  </si>
+  <si>
+    <t>transit_stop</t>
+  </si>
+  <si>
+    <t>A location that is reserved for public transit vehicle loading, unloading, and dwelling.</t>
+  </si>
+  <si>
+    <t>parking;passenger_loading;commericial_loading;parklet;bike_share;dockless_parking;bike_parking;tow_away_zone;commercial_activity;transit_stop;construction_zone;flex_zone</t>
+  </si>
+  <si>
+    <t>This describes the parking parking zone type allowed. Categories include parking (personal vehicle storage), passenger_loading (passenger drop-off / loading) ,commercial_loading (commercial vehicle drop-off / loading), parklet (mini-park or pedestrianized space, bike_share (bike share stations or stalls), dockless_parking (spots to allocate dockless scooter/bike parking),bike_parking (locations for bike parking stands), tow_away_zone (no parking zone/fire lane/ etc.),transit_stop (location for transit stop loading/unloading/dwelling), construction_zone (a zone temporarily allocated to construction activity), flex_zone(a parking zone that can be different things at different times). It is not assumed that the entire curb is taken up by one of these uses, but just that it has at least one of them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This metatag descripts the type of furniture zone being placed. The possible values include street_trees_in_planted_buffer (denotes spaced trees placed in a long vegetated buffer), street_trees_in_curb_cuts (denotes spaced trees in cuts in the concrete), planted_buffer (denotes a grass or other semi-vegetated buffer along furniture zone), filter_strip (placement of  a bioswale or dipped catchment area for rain water in furniture zone), transit_shelter (denotes that a transit shelter is in the furniture zone), complex (denotes multiple types of objects in furniture zone perhaps better described by smaller segments in the slice specification). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SharedStreets geometry compliant LineString that is in WGS Coordinates. The orientation of right vs. left is based the  order of the vertices in this geometry, and its start and end points denote the crosswalk locations described in the specification. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This describes the type of buffer that exists in the street based on the type. Categories include paint (paint only buffers), post (flexible posts in a painted buffer), curb (raised concrete curb buffer), planter (temporary or permanent planter in buffer),vegetated(curb buffer with vegetation or grass),vegetated_with_trees (curb buffer with trees or other vegetation in the buffer),vegetated_with_tree_curb_cuts(curb buffers with vegetation and trees with gaps),stone (large stones delineating the buffer),brick (raised brick inset in a curb buffer),bollard (rigid post separating bicyclists from traffic), separator (raised element placed intermittently along buffer such as parking stops or zebra domes), and other (some other buffer type). </t>
+  </si>
+  <si>
+    <t>This describes the parking parking zone type allowed. Categories include parking (personal vehicle storage), passenger_loading (passenger drop-off / loading) ,commercial_loading (commercial vehicle drop-off / loading), parklet (mini-park or pedestrianized space, bike_share (bike share stations or stalls), dockless_parking (spots to allocate dockless scooter/bike parking),bike_parking (locations for bike parking stands), tow_away_zone (no parking zone/fire lane/ etc.),transit_stop (location for transit stop loading/unloading/dwelling), construction_zone(a zone temporarily allocated to construction activity), flex_zone(a parking zone that can be different things at different times). It is not assumed that the entire curb is taken up by one of these uses, but just that it has at least one of them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This describes the type of crosswalk at the beginning of the segment. The types of crosswalk that are possible are continental (high visibility bars spaced across intersection), transverse (standard two painted lines across intersection), ladder (combination of two painted lines and continental bars), textured (some type of custom colored &amp; textured pavement based crosswalk),zebra (combination of two painted lines and angled diagonal crossbars), other (other custom crosswalk design). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width in meters of an off-street path facility or gravel road that does not have clear delineations for direction that runs parallel to the segment or is the segment being described (all other attributes are zero). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This describes the type of off-street facility being represented. If the geometry represents an off-street path rather than a road or a road that has no formal delineation, this tag along side Off_St_W can be used to represent a simplified rural road or path. The possible values are asphalt (impervious petroleum based path surface), gravel (loose aggregate material delineate path), dirt (compacted soil with little or no vegetation delineate path), stone (large cobblestone or other type of surface), brick (clay brick trail surface). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This specifies the turn lane depth for the end point of the existing segment. If blank, it is assumed the turn lane is the depth of the entire length of the represented segment. For block to block representations, this parameter is required, and only works for symmetrical end points of intersections. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This specifies the turn lane depth for the start point of the existing segment. If blank, it is assumed the turn lane is the depth of the entire length of the represented segment. For block to block representations, this parameter is required, and only works for symmetrical end points of intersections. </t>
+  </si>
+  <si>
+    <t>A loading zone; primarily for passenger pickup/drop-off.</t>
+  </si>
+  <si>
+    <t>A zone where commerce is permitted; e.g. food trucks; farmer's markets; newsstands</t>
+  </si>
+  <si>
+    <t>Any slice that has been reconfigured for a temporary purpose; e.g. construction</t>
   </si>
 </sst>
 </file>
@@ -1317,8 +1341,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1337,7 +1361,7 @@
     </row>
     <row r="3" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1362,7 +1386,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -1379,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>284</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>9</v>
@@ -1399,7 +1423,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>9</v>
@@ -1419,7 +1443,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>9</v>
@@ -1467,10 +1491,10 @@
     </row>
     <row r="11" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
@@ -1479,10 +1503,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1639,10 +1663,10 @@
         <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1665,7 +1689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -1679,10 +1703,10 @@
         <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1719,10 +1743,10 @@
         <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1759,10 +1783,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1779,7 +1803,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>9</v>
@@ -1799,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>9</v>
@@ -1827,10 +1851,10 @@
     </row>
     <row r="29" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>48</v>
@@ -1839,10 +1863,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -1859,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>9</v>
@@ -1879,7 +1903,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>9</v>
@@ -1899,7 +1923,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>9</v>
@@ -1919,7 +1943,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>9</v>
@@ -1939,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>9</v>
@@ -1959,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>9</v>
@@ -1979,7 +2003,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>9</v>
@@ -1999,10 +2023,10 @@
         <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2019,13 +2043,13 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
         <v>79</v>
       </c>
@@ -2039,10 +2063,10 @@
         <v>15</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2059,7 +2083,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>9</v>
@@ -2079,10 +2103,10 @@
         <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2139,10 +2163,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
@@ -2159,18 +2183,18 @@
         <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B46" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>6</v>
@@ -2179,7 +2203,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>9</v>
@@ -2187,10 +2211,10 @@
     </row>
     <row r="47" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>48</v>
@@ -2199,10 +2223,10 @@
         <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2273,7 +2297,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2324,24 +2348,24 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
@@ -2392,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2409,15 +2433,15 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>112</v>
@@ -2443,7 +2467,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2458,7 +2482,7 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2479,7 +2503,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2535,7 +2559,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
@@ -2553,7 +2577,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
@@ -2607,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2631,7 +2655,7 @@
     <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -2674,10 +2698,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A69" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2707,7 +2731,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -2734,7 +2758,7 @@
     <row r="7" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -2744,7 +2768,7 @@
         <v>128</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2760,7 +2784,7 @@
         <v>128</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2776,7 +2800,7 @@
         <v>128</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -2792,14 +2816,14 @@
         <v>128</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>106</v>
@@ -2808,14 +2832,14 @@
         <v>128</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>106</v>
@@ -2824,7 +2848,7 @@
         <v>128</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="29.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2872,7 +2896,7 @@
         <v>135</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2891,72 +2915,72 @@
     </row>
     <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D18" t="s">
         <v>130</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D19" t="s">
         <v>130</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D20" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D21" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D22" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2970,7 +2994,7 @@
         <v>15</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2986,7 +3010,7 @@
         <v>133</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3077,7 +3101,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3105,7 +3129,7 @@
         <v>15</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3138,10 +3162,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3155,12 +3179,12 @@
         <v>15</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D40" t="s">
         <v>139</v>
@@ -3169,7 +3193,7 @@
         <v>15</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3194,13 +3218,16 @@
         <v>153</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>167</v>
       </c>
+      <c r="D45" t="s">
+        <v>112</v>
+      </c>
       <c r="E45" s="2" t="s">
         <v>128</v>
       </c>
@@ -3210,7 +3237,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>177</v>
+        <v>277</v>
+      </c>
+      <c r="D46" t="s">
+        <v>112</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>128</v>
@@ -3223,6 +3253,9 @@
       <c r="A47" t="s">
         <v>145</v>
       </c>
+      <c r="D47" t="s">
+        <v>112</v>
+      </c>
       <c r="E47" s="2" t="s">
         <v>128</v>
       </c>
@@ -3232,199 +3265,259 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>272</v>
+      </c>
+      <c r="D48" t="s">
+        <v>112</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="D49" t="s">
+        <v>112</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>174</v>
+        <v>279</v>
+      </c>
+      <c r="D50" t="s">
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>178</v>
+        <v>278</v>
+      </c>
+      <c r="D51" t="s">
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>184</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>179</v>
+        <v>175</v>
+      </c>
+      <c r="D52" t="s">
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>185</v>
+        <v>176</v>
+      </c>
+      <c r="D53" t="s">
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F54" s="2"/>
+      <c r="A54" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F55" s="2"/>
+      <c r="A55" t="s">
+        <v>273</v>
+      </c>
+      <c r="D55" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
+        <v>275</v>
+      </c>
+      <c r="D56" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
         <v>147</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" t="s">
+      <c r="F59" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" t="s">
         <v>108</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" t="s">
+      <c r="F60" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
         <v>148</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" t="s">
+      <c r="F61" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" t="s">
         <v>108</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" t="s">
-        <v>149</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" t="s">
-        <v>108</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" t="s">
-        <v>173</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" t="s">
-        <v>180</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>128</v>
+      <c r="F63" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" t="s">
+        <v>108</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F66" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="7"/>
-      <c r="F68" s="8"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" t="s">
+        <v>108</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>178</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="7"/>
+      <c r="F71" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3456,10 +3549,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3490,7 +3583,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3504,7 +3597,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3518,7 +3611,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3526,7 +3619,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -3546,7 +3639,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -3560,7 +3653,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -3574,7 +3667,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -3588,7 +3681,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -3602,7 +3695,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3616,7 +3709,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -3630,7 +3723,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -3658,7 +3751,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -3686,7 +3779,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -3714,7 +3807,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -3742,7 +3835,7 @@
         <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -3756,7 +3849,7 @@
         <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -3770,7 +3863,7 @@
         <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -3778,7 +3871,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>84</v>
@@ -3798,7 +3891,7 @@
         <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -3812,7 +3905,7 @@
         <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -3826,7 +3919,7 @@
         <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -3840,7 +3933,7 @@
         <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -3854,7 +3947,7 @@
         <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -3868,7 +3961,7 @@
         <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -3882,7 +3975,7 @@
         <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -3910,7 +4003,7 @@
         <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -3938,7 +4031,7 @@
         <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -3966,7 +4059,7 @@
         <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -3980,7 +4073,7 @@
         <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -4016,13 +4109,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B41" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -4030,10 +4123,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B42" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>48</v>

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E03A74-9307-47FC-AC30-3D4AF314D9B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
-    <sheet name="Crosswalk" sheetId="3" r:id="rId2"/>
+    <sheet name="Schema Crosswalk" sheetId="3" r:id="rId2"/>
     <sheet name="Slice Cross-section Spec" sheetId="2" r:id="rId3"/>
     <sheet name="Slice Types" sheetId="4" r:id="rId4"/>
     <sheet name="Additive_Fields_Arc" sheetId="5" state="hidden" r:id="rId5"/>
@@ -956,7 +955,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1335,31 +1334,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="32.7890625" customWidth="1"/>
-    <col min="3" max="3" width="20.89453125" customWidth="1"/>
-    <col min="4" max="4" width="18.26171875" customWidth="1"/>
-    <col min="5" max="5" width="51.15625" customWidth="1"/>
-    <col min="6" max="6" width="35.9453125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" customWidth="1"/>
+    <col min="6" max="6" width="36" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>228</v>
       </c>
@@ -1369,7 +1368,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1389,7 +1388,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1409,7 +1408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>101</v>
       </c>
@@ -1429,7 +1428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1449,7 +1448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1469,7 +1468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1489,7 +1488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>215</v>
       </c>
@@ -1509,7 +1508,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1529,7 +1528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1549,7 +1548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -1569,7 +1568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1589,7 +1588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1609,7 +1608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -1629,7 +1628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -1649,7 +1648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="187.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1669,7 +1668,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -1689,7 +1688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -1709,7 +1708,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1729,7 +1728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -1749,7 +1748,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
@@ -1769,7 +1768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1789,7 +1788,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>67</v>
       </c>
@@ -1809,7 +1808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>68</v>
       </c>
@@ -1829,7 +1828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>69</v>
       </c>
@@ -1849,7 +1848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>213</v>
       </c>
@@ -1869,7 +1868,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>70</v>
       </c>
@@ -1889,7 +1888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>71</v>
       </c>
@@ -1909,7 +1908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>72</v>
       </c>
@@ -1929,7 +1928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>73</v>
       </c>
@@ -1949,7 +1948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
@@ -1969,7 +1968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -1989,7 +1988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>76</v>
       </c>
@@ -2009,7 +2008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="187.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>77</v>
       </c>
@@ -2029,7 +2028,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>78</v>
       </c>
@@ -2049,7 +2048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>79</v>
       </c>
@@ -2069,7 +2068,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -2089,7 +2088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
@@ -2109,7 +2108,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -2129,7 +2128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -2149,7 +2148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -2169,7 +2168,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -2189,7 +2188,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>217</v>
       </c>
@@ -2209,7 +2208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>218</v>
       </c>
@@ -2229,40 +2228,40 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="8"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="8"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="8"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="8"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" s="8"/>
     </row>
   </sheetData>
@@ -2276,31 +2275,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F3E168-994C-406C-B158-8312D24CB96A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.62890625" customWidth="1"/>
-    <col min="2" max="2" width="50.3125" customWidth="1"/>
-    <col min="3" max="3" width="29.83984375" customWidth="1"/>
-    <col min="4" max="4" width="39.26171875" customWidth="1"/>
-    <col min="5" max="5" width="50.83984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2317,7 +2316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2334,7 +2333,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>101</v>
       </c>
@@ -2351,7 +2350,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>227</v>
       </c>
@@ -2368,7 +2367,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>108</v>
       </c>
@@ -2385,7 +2384,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>109</v>
       </c>
@@ -2402,7 +2401,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>110</v>
       </c>
@@ -2419,7 +2418,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>111</v>
       </c>
@@ -2436,7 +2435,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>190</v>
       </c>
@@ -2453,7 +2452,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>113</v>
       </c>
@@ -2476,37 +2475,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CE16D9-6B4A-4B97-84C9-4C29085A06C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.734375" customWidth="1"/>
-    <col min="2" max="2" width="11.7890625" customWidth="1"/>
-    <col min="3" max="3" width="33.89453125" customWidth="1"/>
-    <col min="4" max="4" width="20.89453125" customWidth="1"/>
-    <col min="5" max="5" width="26.7890625" customWidth="1"/>
-    <col min="6" max="6" width="52.1015625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2526,7 +2525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>99</v>
       </c>
@@ -2544,7 +2543,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>104</v>
       </c>
@@ -2562,7 +2561,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>105</v>
       </c>
@@ -2580,7 +2579,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>108</v>
@@ -2598,7 +2597,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>109</v>
@@ -2616,7 +2615,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>110</v>
@@ -2634,7 +2633,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>111</v>
@@ -2652,7 +2651,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>190</v>
@@ -2670,7 +2669,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>113</v>
       </c>
@@ -2694,36 +2693,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14113956-9C41-4528-BBB9-AD2809B184AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A69" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1015625" customWidth="1"/>
-    <col min="2" max="3" width="20.3671875" customWidth="1"/>
-    <col min="4" max="4" width="30.1015625" customWidth="1"/>
-    <col min="5" max="5" width="13.41796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="91.734375" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="91.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>119</v>
       </c>
@@ -2743,7 +2742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>126</v>
       </c>
@@ -2755,7 +2754,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>190</v>
@@ -2771,7 +2770,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>127</v>
@@ -2787,7 +2786,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>110</v>
@@ -2803,7 +2802,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>134</v>
@@ -2819,7 +2818,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -2835,7 +2834,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -2851,7 +2850,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" ht="29.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" s="3" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>152</v>
       </c>
@@ -2863,7 +2862,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -2877,7 +2876,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>122</v>
       </c>
@@ -2891,7 +2890,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -2899,7 +2898,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>122</v>
       </c>
@@ -2913,7 +2912,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>254</v>
       </c>
@@ -2927,7 +2926,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>255</v>
       </c>
@@ -2941,7 +2940,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>259</v>
       </c>
@@ -2955,7 +2954,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>260</v>
       </c>
@@ -2969,7 +2968,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>262</v>
       </c>
@@ -2983,7 +2982,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>111</v>
       </c>
@@ -2997,7 +2996,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>151</v>
       </c>
@@ -3005,7 +3004,7 @@
       <c r="C24" s="5"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>133</v>
       </c>
@@ -3013,7 +3012,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>159</v>
       </c>
@@ -3024,7 +3023,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>132</v>
       </c>
@@ -3032,7 +3031,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -3040,7 +3039,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>138</v>
       </c>
@@ -3054,7 +3053,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>142</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>143</v>
       </c>
@@ -3082,7 +3081,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>140</v>
       </c>
@@ -3090,7 +3089,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>108</v>
       </c>
@@ -3104,7 +3103,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>164</v>
       </c>
@@ -3118,7 +3117,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>165</v>
       </c>
@@ -3132,7 +3131,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -3146,7 +3145,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>143</v>
       </c>
@@ -3160,7 +3159,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>248</v>
       </c>
@@ -3168,7 +3167,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>142</v>
       </c>
@@ -3182,7 +3181,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>250</v>
       </c>
@@ -3196,13 +3195,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>154</v>
       </c>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>136</v>
       </c>
@@ -3210,10 +3209,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>153</v>
       </c>
@@ -3221,7 +3220,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -3235,7 +3234,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>277</v>
       </c>
@@ -3249,7 +3248,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -3263,7 +3262,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>272</v>
       </c>
@@ -3277,7 +3276,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -3291,7 +3290,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>279</v>
       </c>
@@ -3305,7 +3304,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>278</v>
       </c>
@@ -3319,7 +3318,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -3333,7 +3332,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>176</v>
       </c>
@@ -3347,7 +3346,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>182</v>
       </c>
@@ -3361,7 +3360,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>273</v>
       </c>
@@ -3375,7 +3374,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>275</v>
       </c>
@@ -3389,16 +3388,16 @@
         <v>276</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>155</v>
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -3409,7 +3408,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>108</v>
       </c>
@@ -3417,7 +3416,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>148</v>
       </c>
@@ -3428,7 +3427,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>108</v>
       </c>
@@ -3436,7 +3435,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>149</v>
       </c>
@@ -3447,7 +3446,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>108</v>
       </c>
@@ -3455,7 +3454,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>172</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>173</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>177</v>
       </c>
@@ -3485,7 +3484,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>108</v>
       </c>
@@ -3493,7 +3492,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>180</v>
       </c>
@@ -3504,7 +3503,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>178</v>
       </c>
@@ -3515,7 +3514,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="F71" s="8"/>
     </row>
@@ -3530,7 +3529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D7CED4-0E90-4B5E-B1A2-0DCFB3B6AEBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
@@ -3540,14 +3539,14 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1015625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.26171875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>198</v>
       </c>
@@ -3561,7 +3560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
@@ -3575,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -3589,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3603,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3617,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>215</v>
       </c>
@@ -3631,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -3645,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -3659,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -3673,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -3687,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -3701,7 +3700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -3715,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -3729,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -3743,7 +3742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -3757,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -3771,7 +3770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -3785,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -3799,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -3813,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
@@ -3827,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>67</v>
       </c>
@@ -3841,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>68</v>
       </c>
@@ -3855,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -3869,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>213</v>
       </c>
@@ -3883,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
@@ -3897,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>71</v>
       </c>
@@ -3911,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>72</v>
       </c>
@@ -3925,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>73</v>
       </c>
@@ -3939,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>74</v>
       </c>
@@ -3953,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>75</v>
       </c>
@@ -3967,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>76</v>
       </c>
@@ -3981,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>77</v>
       </c>
@@ -3995,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>78</v>
       </c>
@@ -4009,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>79</v>
       </c>
@@ -4023,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>80</v>
       </c>
@@ -4037,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>81</v>
       </c>
@@ -4051,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -4065,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -4079,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -4093,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -4107,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>217</v>
       </c>
@@ -4121,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>218</v>
       </c>

--- a/specification/Shared-Row.xlsx
+++ b/specification/Shared-Row.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8C3DBE-DFE0-431C-A973-897D58980A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Additive Cross-section Spec" sheetId="1" r:id="rId1"/>
@@ -658,9 +659,6 @@
     <t xml:space="preserve">A numeric index starting at 0 to the number of slices in the current SharedStreetID segment. The RowIndex with a SharedStreetID should be a unique ID if used in combination. </t>
   </si>
   <si>
-    <t xml:space="preserve">Description: A share-row-crosswalk consists of each row representing a slice of a shared-street id. Intended to allow the conversion between Additive and Sliced based specifications in an editable GIS/SQL database. </t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -950,12 +948,15 @@
   </si>
   <si>
     <t>Any slice that has been reconfigured for a temporary purpose; e.g. construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: A share-row-crosswalk consists of each row representing a slice of street sharing a common shared-street id. Intended to allow the conversion between Additive and Sliced based specifications in an editable GIS/SQL database. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1334,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1360,7 +1361,7 @@
     </row>
     <row r="3" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1385,7 +1386,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -1402,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>9</v>
@@ -1442,7 +1443,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>9</v>
@@ -1490,10 +1491,10 @@
     </row>
     <row r="11" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
@@ -1502,10 +1503,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1662,10 +1663,10 @@
         <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1702,10 +1703,10 @@
         <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1742,10 +1743,10 @@
         <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1782,10 +1783,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1802,7 +1803,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>9</v>
@@ -1822,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>9</v>
@@ -1850,10 +1851,10 @@
     </row>
     <row r="29" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>48</v>
@@ -1862,10 +1863,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1882,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>9</v>
@@ -1902,7 +1903,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>9</v>
@@ -1922,7 +1923,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>9</v>
@@ -1942,7 +1943,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>9</v>
@@ -1962,7 +1963,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>9</v>
@@ -1982,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>9</v>
@@ -2002,7 +2003,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>9</v>
@@ -2022,10 +2023,10 @@
         <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2042,7 +2043,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>9</v>
@@ -2062,10 +2063,10 @@
         <v>15</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2082,7 +2083,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>9</v>
@@ -2102,10 +2103,10 @@
         <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2162,10 +2163,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -2182,18 +2183,18 @@
         <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>6</v>
@@ -2202,7 +2203,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>9</v>
@@ -2210,10 +2211,10 @@
     </row>
     <row r="47" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>48</v>
@@ -2222,10 +2223,10 @@
         <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2275,15 +2276,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2296,7 +2295,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2352,7 +2351,7 @@
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
         <v>194</v>
@@ -2415,7 +2414,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2432,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -2466,7 +2465,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2475,13 +2474,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2558,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -2576,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -2630,7 +2629,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2693,7 +2692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
@@ -2767,7 +2766,7 @@
         <v>128</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2783,7 +2782,7 @@
         <v>128</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2799,7 +2798,7 @@
         <v>128</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2815,7 +2814,7 @@
         <v>128</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2831,7 +2830,7 @@
         <v>128</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2847,7 +2846,7 @@
         <v>128</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2895,7 +2894,7 @@
         <v>135</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2914,72 +2913,72 @@
     </row>
     <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D18" t="s">
         <v>130</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D19" t="s">
         <v>130</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D20" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D21" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D22" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2993,7 +2992,7 @@
         <v>15</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3009,7 +3008,7 @@
         <v>133</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3100,7 +3099,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3128,7 +3127,7 @@
         <v>15</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3161,10 +3160,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3178,12 +3177,12 @@
         <v>15</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D40" t="s">
         <v>139</v>
@@ -3192,7 +3191,7 @@
         <v>15</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3217,7 +3216,7 @@
         <v>153</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3236,7 +3235,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D46" t="s">
         <v>112</v>
@@ -3264,7 +3263,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D48" t="s">
         <v>112</v>
@@ -3273,7 +3272,7 @@
         <v>128</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3287,12 +3286,12 @@
         <v>128</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D50" t="s">
         <v>112</v>
@@ -3301,12 +3300,12 @@
         <v>128</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D51" t="s">
         <v>112</v>
@@ -3315,7 +3314,7 @@
         <v>128</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3362,7 +3361,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D55" t="s">
         <v>112</v>
@@ -3371,12 +3370,12 @@
         <v>128</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D56" t="s">
         <v>112</v>
@@ -3385,7 +3384,7 @@
         <v>128</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3413,7 +3412,7 @@
         <v>108</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3432,7 +3431,7 @@
         <v>108</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3443,7 +3442,7 @@
         <v>128</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3451,7 +3450,7 @@
         <v>108</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -3459,7 +3458,7 @@
         <v>172</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -3481,7 +3480,7 @@
         <v>128</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3489,7 +3488,7 @@
         <v>108</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3500,7 +3499,7 @@
         <v>128</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3529,7 +3528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
@@ -3548,10 +3547,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" t="s">
         <v>198</v>
-      </c>
-      <c r="B1" t="s">
-        <v>199</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3582,7 +3581,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3596,7 +3595,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3610,7 +3609,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3618,7 +3617,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -3638,7 +3637,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -3652,7 +3651,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -3666,7 +3665,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -3680,7 +3679,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -3694,7 +3693,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3708,7 +3707,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -3722,7 +3721,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -3750,7 +3749,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -3778,7 +3777,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -3806,7 +3805,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -3834,7 +3833,7 @@
         <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -3848,7 +3847,7 @@
         <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -3862,7 +3861,7 @@
         <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -3870,7 +3869,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>84</v>
@@ -3890,7 +3889,7 @@
         <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -3904,7 +3903,7 @@
         <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -3918,7 +3917,7 @@
         <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -3932,7 +3931,7 @@
         <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -3946,7 +3945,7 @@
         <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -3960,7 +3959,7 @@
         <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -3974,7 +3973,7 @@
         <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -4002,7 +4001,7 @@
         <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -4030,7 +4029,7 @@
         <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -4058,7 +4057,7 @@
         <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -4072,7 +4071,7 @@
         <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -4108,13 +4107,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -4122,10 +4121,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>48</v>
